--- a/Seguimiento/RiesgosCiclo3.xlsx
+++ b/Seguimiento/RiesgosCiclo3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-630" yWindow="3810" windowWidth="19695" windowHeight="3690"/>
+    <workbookView xWindow="-630" yWindow="3810" windowWidth="19695" windowHeight="3690" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="R3" sheetId="7" r:id="rId1"/>
@@ -12,9 +12,10 @@
     <sheet name="R8" sheetId="9" r:id="rId3"/>
     <sheet name="R22" sheetId="10" r:id="rId4"/>
     <sheet name="R23" sheetId="11" r:id="rId5"/>
-    <sheet name="Detalles plan de riesgo" sheetId="5" r:id="rId6"/>
-    <sheet name="Consolidado" sheetId="13" r:id="rId7"/>
-    <sheet name="leyenda" sheetId="12" r:id="rId8"/>
+    <sheet name="R30" sheetId="14" r:id="rId6"/>
+    <sheet name="Detalles plan de riesgo" sheetId="5" r:id="rId7"/>
+    <sheet name="Consolidado" sheetId="13" r:id="rId8"/>
+    <sheet name="leyenda" sheetId="12" r:id="rId9"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
@@ -1855,8 +1856,361 @@
 </comments>
 </file>
 
+<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Gabriel Martinez</author>
+  </authors>
+  <commentList>
+    <comment ref="F1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Gabriel Martinez:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+septiembre 1 - septiembre 7</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Gabriel Martinez:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+sep8-sep14</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Gabriel Martinez:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+sep15-sep21</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Gabriel Martinez:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+sep22-sep28</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Gabriel Martinez:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+sep29-oct5
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Gabriel Martinez:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+oct 6- oct 13
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Gabriel Martinez:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+oct 6- oct 13
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Gabriel Martinez:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+oct 14- oct 19
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Gabriel Martinez:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+oct 20 - oct 26</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Gabriel Martinez:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+oct 27 - nov 2
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Gabriel Martinez:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+nov 3 - nov 9
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Gabriel Martinez:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+nov 10 - nov 16</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Gabriel Martinez:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+nov 17 - 27</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Gabriel Martinez:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+oct 6- oct 13
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="709" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="180">
   <si>
     <t>Código del riesgo</t>
   </si>
@@ -1918,12 +2272,6 @@
     <t>R8</t>
   </si>
   <si>
-    <t>No aplicar y mantener una correcta gestión documental del proyecto</t>
-  </si>
-  <si>
-    <t>Falta de definición de estandarización de la documentación y desarrollo.</t>
-  </si>
-  <si>
     <t>Identificación de riegos</t>
   </si>
   <si>
@@ -2006,9 +2354,6 @@
   </si>
   <si>
     <t>Fallas de comunicación en el equipo</t>
-  </si>
-  <si>
-    <t>Problemas de Integración de tecnologías</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
@@ -2382,6 +2727,30 @@
   </si>
   <si>
     <t>Cierre Ciclo 3</t>
+  </si>
+  <si>
+    <t>Demoras en la etapa de integración</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> No aplicar y mantener una correcta gestión documental del proyecto.Falta de definición de estandarización de la documentación y desarrollo.</t>
+  </si>
+  <si>
+    <t>Perdida de información del proyecto</t>
+  </si>
+  <si>
+    <t>R8. Perdida de información durante la ejecución proyecto.</t>
+  </si>
+  <si>
+    <t>Demoras en la etapa de Integración de tecnologías</t>
+  </si>
+  <si>
+    <t>R30</t>
+  </si>
+  <si>
+    <t>No aplicar una correcta gestión del cambio.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Realizar </t>
   </si>
 </sst>
 </file>
@@ -3468,7 +3837,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="239">
+  <cellXfs count="241">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
@@ -3881,6 +4250,12 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3941,12 +4316,108 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -3977,21 +4448,6 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4054,87 +4510,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4146,7 +4521,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="313">
+  <dxfs count="277">
     <dxf>
       <fill>
         <patternFill>
@@ -4185,6 +4560,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
@@ -4192,13 +4581,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
@@ -4206,13 +4588,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
@@ -4227,6 +4602,41 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
@@ -4234,13 +4644,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
@@ -4248,6 +4651,48 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
@@ -4290,6 +4735,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
@@ -4346,6 +4798,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
@@ -4353,6 +4819,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
@@ -4360,7 +4833,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4381,6 +4854,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
@@ -4402,6 +4882,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
@@ -4409,13 +4896,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
@@ -4423,6 +4903,48 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
@@ -4430,6 +4952,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
@@ -4437,13 +4966,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
@@ -4465,6 +4987,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
@@ -4479,13 +5008,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
@@ -4500,6 +5022,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
@@ -4507,6 +5036,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
@@ -5901,426 +6444,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -6637,8 +6760,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6669,106 +6792,106 @@
         <v>1</v>
       </c>
       <c r="C1" s="52" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D1" s="68" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E1" s="68" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F1" s="90" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="G1" s="91" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" s="91" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1" s="91" t="s">
         <v>34</v>
       </c>
-      <c r="H1" s="91" t="s">
+      <c r="J1" s="91" t="s">
+        <v>98</v>
+      </c>
+      <c r="K1" s="91" t="s">
+        <v>96</v>
+      </c>
+      <c r="L1" s="91" t="s">
+        <v>170</v>
+      </c>
+      <c r="M1" s="91" t="s">
         <v>35</v>
       </c>
-      <c r="I1" s="91" t="s">
+      <c r="N1" s="91" t="s">
         <v>36</v>
       </c>
-      <c r="J1" s="91" t="s">
-        <v>101</v>
-      </c>
-      <c r="K1" s="91" t="s">
-        <v>99</v>
-      </c>
-      <c r="L1" s="91" t="s">
-        <v>173</v>
-      </c>
-      <c r="M1" s="91" t="s">
+      <c r="O1" s="91" t="s">
         <v>37</v>
       </c>
-      <c r="N1" s="91" t="s">
+      <c r="P1" s="91" t="s">
         <v>38</v>
       </c>
-      <c r="O1" s="91" t="s">
+      <c r="Q1" s="90" t="s">
         <v>39</v>
       </c>
-      <c r="P1" s="91" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q1" s="90" t="s">
-        <v>41</v>
-      </c>
       <c r="R1" s="104" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="S1" s="91" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="T1" s="87" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="U1" s="87" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="V1" s="87" t="s">
+        <v>119</v>
+      </c>
+      <c r="W1" s="87" t="s">
         <v>122</v>
-      </c>
-      <c r="W1" s="87" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:23" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="152" t="str">
+      <c r="A2" s="154" t="str">
         <f>'Detalles plan de riesgo'!A2:A7</f>
         <v>R3</v>
       </c>
-      <c r="B2" s="155" t="str">
+      <c r="B2" s="157" t="str">
         <f>'Detalles plan de riesgo'!B2:B7</f>
         <v>El tiempo gastado para llevar a cabo cada una de las actividades del proyecto es superior al planeado</v>
       </c>
-      <c r="C2" s="167" t="str">
+      <c r="C2" s="169" t="str">
         <f>'Detalles plan de riesgo'!H2</f>
         <v>Hacer un seguimiento continuo (semanal) al cronograma.</v>
       </c>
-      <c r="D2" s="163"/>
+      <c r="D2" s="165"/>
       <c r="E2" s="77" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F2" s="100" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G2" s="100" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="H2" s="100" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="I2" s="100" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="J2" s="100" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="K2" s="100" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="L2" s="105" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="M2" s="53"/>
       <c r="N2" s="53"/>
@@ -6777,49 +6900,49 @@
       <c r="Q2" s="60"/>
       <c r="R2" s="25"/>
       <c r="S2" s="105" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="T2" s="95" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="U2" s="102" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="V2" s="101" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="W2" s="103" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:23" s="89" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3" s="153"/>
-      <c r="B3" s="156"/>
-      <c r="C3" s="161"/>
-      <c r="D3" s="164"/>
+      <c r="A3" s="155"/>
+      <c r="B3" s="158"/>
+      <c r="C3" s="163"/>
+      <c r="D3" s="166"/>
       <c r="E3" s="78" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F3" s="100" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G3" s="100" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="H3" s="100" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="I3" s="100" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="J3" s="100" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="K3" s="100" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="L3" s="105" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="M3" s="54"/>
       <c r="N3" s="54"/>
@@ -6828,52 +6951,52 @@
       <c r="Q3" s="61"/>
       <c r="R3" s="25"/>
       <c r="S3" s="105" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="T3" s="95" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="U3" s="103" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="V3" s="102" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="W3" s="102" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:23" ht="51" x14ac:dyDescent="0.25">
-      <c r="A4" s="153"/>
-      <c r="B4" s="156"/>
+      <c r="A4" s="155"/>
+      <c r="B4" s="158"/>
       <c r="C4" s="72" t="str">
         <f>'Detalles plan de riesgo'!H3</f>
         <v xml:space="preserve">Hacer un registro continuo de tiempos por parte de cada integrante. </v>
       </c>
-      <c r="D4" s="164"/>
+      <c r="D4" s="166"/>
       <c r="E4" s="78" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F4" s="100" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G4" s="100" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="H4" s="100" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I4" s="100" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="J4" s="100" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="K4" s="100" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="L4" s="105" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="M4" s="54"/>
       <c r="N4" s="54"/>
@@ -6882,257 +7005,257 @@
       <c r="Q4" s="61"/>
       <c r="R4" s="25"/>
       <c r="S4" s="105" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="T4" s="95" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="U4" s="101" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="V4" s="103" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="W4" s="95"/>
     </row>
     <row r="5" spans="1:23" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="153"/>
-      <c r="B5" s="156"/>
-      <c r="C5" s="161" t="str">
+      <c r="A5" s="155"/>
+      <c r="B5" s="158"/>
+      <c r="C5" s="163" t="str">
         <f>'Detalles plan de riesgo'!H5</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="D5" s="73" t="s">
-        <v>98</v>
-      </c>
-      <c r="E5" s="165"/>
+        <v>95</v>
+      </c>
+      <c r="E5" s="167"/>
       <c r="F5" s="61" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G5" s="61" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="H5" s="61" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="I5" s="61" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J5" s="61" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K5" s="61" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="L5" s="54" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="M5" s="61" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="N5" s="61" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="O5" s="61" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="P5" s="61" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="Q5" s="61" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="R5" s="25" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="S5" s="54" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="U5" s="103" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A6" s="153"/>
-      <c r="B6" s="156"/>
-      <c r="C6" s="161"/>
+      <c r="A6" s="155"/>
+      <c r="B6" s="158"/>
+      <c r="C6" s="163"/>
       <c r="D6" s="72" t="s">
-        <v>52</v>
-      </c>
-      <c r="E6" s="165"/>
+        <v>49</v>
+      </c>
+      <c r="E6" s="167"/>
       <c r="F6" s="61" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G6" s="61" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H6" s="61" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I6" s="61" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J6" s="61" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K6" s="61" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="L6" s="54" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="M6" s="61" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="N6" s="61" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="O6" s="61" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="P6" s="61" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="Q6" s="61" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="R6" s="25" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="S6" s="54" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:23" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="153"/>
-      <c r="B7" s="156"/>
-      <c r="C7" s="161"/>
+      <c r="A7" s="155"/>
+      <c r="B7" s="158"/>
+      <c r="C7" s="163"/>
       <c r="D7" s="72" t="s">
-        <v>54</v>
-      </c>
-      <c r="E7" s="165"/>
+        <v>51</v>
+      </c>
+      <c r="E7" s="167"/>
       <c r="F7" s="61" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G7" s="61" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H7" s="61" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I7" s="61" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J7" s="61" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K7" s="61" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="L7" s="54" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="M7" s="61" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="N7" s="61" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="O7" s="61" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="P7" s="61" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="Q7" s="61" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="R7" s="25" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="S7" s="54" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:23" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="153"/>
-      <c r="B8" s="157"/>
-      <c r="C8" s="162"/>
+      <c r="A8" s="155"/>
+      <c r="B8" s="159"/>
+      <c r="C8" s="164"/>
       <c r="D8" s="79" t="s">
-        <v>56</v>
-      </c>
-      <c r="E8" s="166"/>
+        <v>53</v>
+      </c>
+      <c r="E8" s="168"/>
       <c r="F8" s="61" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G8" s="61" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H8" s="61" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I8" s="61" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J8" s="61" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K8" s="61" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="L8" s="54" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="M8" s="61" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="N8" s="61" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="O8" s="61" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="P8" s="61" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="Q8" s="61" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="R8" s="25" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="S8" s="54" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:23" s="89" customFormat="1" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="153"/>
-      <c r="B9" s="158" t="s">
-        <v>124</v>
-      </c>
-      <c r="C9" s="159"/>
-      <c r="D9" s="159"/>
-      <c r="E9" s="160"/>
+      <c r="A9" s="155"/>
+      <c r="B9" s="160" t="s">
+        <v>121</v>
+      </c>
+      <c r="C9" s="161"/>
+      <c r="D9" s="161"/>
+      <c r="E9" s="162"/>
       <c r="F9" s="61" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G9" s="61" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H9" s="61" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I9" s="61" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J9" s="61" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K9" s="61" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="L9" s="54" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="M9" s="54"/>
       <c r="N9" s="54"/>
@@ -7141,30 +7264,30 @@
       <c r="Q9" s="61"/>
       <c r="R9" s="25"/>
       <c r="S9" s="54" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="T9" s="95" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="10" spans="1:23" ht="225.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="154"/>
-      <c r="B10" s="158" t="s">
-        <v>47</v>
-      </c>
-      <c r="C10" s="159"/>
-      <c r="D10" s="159"/>
-      <c r="E10" s="160"/>
+      <c r="A10" s="156"/>
+      <c r="B10" s="160" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="161"/>
+      <c r="D10" s="161"/>
+      <c r="E10" s="162"/>
       <c r="F10" s="71" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G10" s="55"/>
       <c r="H10" s="83"/>
       <c r="I10" s="84" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="J10" s="84" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="K10" s="55"/>
       <c r="L10" s="55"/>
@@ -7188,310 +7311,310 @@
     <mergeCell ref="B9:E9"/>
   </mergeCells>
   <conditionalFormatting sqref="F2:F9 F2:K8 M5:S8">
-    <cfRule type="cellIs" dxfId="252" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="276" priority="69" operator="equal">
       <formula>$V$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="251" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="275" priority="70" operator="equal">
       <formula>$V$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:K3 G2:K4 F3:F4">
-    <cfRule type="cellIs" dxfId="250" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="274" priority="68" operator="equal">
       <formula>$U$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="cellIs" dxfId="249" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="273" priority="62" operator="equal">
       <formula>$U$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:K4">
-    <cfRule type="cellIs" dxfId="248" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="272" priority="60" operator="equal">
       <formula>$U$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="247" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="271" priority="61" operator="equal">
       <formula>$U$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:K4">
-    <cfRule type="cellIs" dxfId="246" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="270" priority="59" operator="equal">
       <formula>$U$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2">
-    <cfRule type="cellIs" dxfId="245" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="269" priority="58" operator="equal">
       <formula>$U$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:K2">
-    <cfRule type="cellIs" dxfId="244" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="268" priority="57" operator="equal">
       <formula>$U$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:K4">
-    <cfRule type="cellIs" dxfId="243" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="267" priority="54" operator="equal">
       <formula>$U$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:K3">
-    <cfRule type="cellIs" dxfId="242" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="266" priority="56" operator="equal">
       <formula>$U$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:K4">
-    <cfRule type="cellIs" dxfId="241" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="265" priority="55" operator="equal">
       <formula>$U$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9:K9">
-    <cfRule type="cellIs" dxfId="240" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="264" priority="52" operator="equal">
       <formula>$W$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="239" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="263" priority="53" operator="equal">
       <formula>$W$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S9">
-    <cfRule type="cellIs" dxfId="238" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="262" priority="50" operator="equal">
       <formula>$W$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="237" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="261" priority="51" operator="equal">
       <formula>$W$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:K4">
-    <cfRule type="cellIs" dxfId="236" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="260" priority="49" operator="equal">
       <formula>$U$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F4">
-    <cfRule type="cellIs" dxfId="235" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="259" priority="48" operator="equal">
       <formula>$U$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S4">
-    <cfRule type="cellIs" dxfId="234" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="258" priority="46" operator="equal">
       <formula>$U$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="233" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="257" priority="47" operator="equal">
       <formula>$U$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S4">
-    <cfRule type="cellIs" dxfId="232" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="256" priority="45" operator="equal">
       <formula>$U$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S4">
-    <cfRule type="cellIs" dxfId="231" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="255" priority="43" operator="equal">
       <formula>$U$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="230" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="254" priority="44" operator="equal">
       <formula>$U$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S4">
-    <cfRule type="cellIs" dxfId="229" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="253" priority="42" operator="equal">
       <formula>$U$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S4">
-    <cfRule type="cellIs" dxfId="228" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="252" priority="40" operator="equal">
       <formula>$U$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S4">
-    <cfRule type="cellIs" dxfId="227" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="251" priority="41" operator="equal">
       <formula>$U$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S4">
-    <cfRule type="cellIs" dxfId="226" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="250" priority="39" operator="equal">
       <formula>$U$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S2">
-    <cfRule type="cellIs" dxfId="225" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="249" priority="37" operator="equal">
       <formula>$U$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="224" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="248" priority="38" operator="equal">
       <formula>$U$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S2">
-    <cfRule type="cellIs" dxfId="223" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="247" priority="36" operator="equal">
       <formula>$U$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S2">
-    <cfRule type="cellIs" dxfId="222" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="246" priority="35" operator="equal">
       <formula>$U$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S2">
-    <cfRule type="cellIs" dxfId="221" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="245" priority="34" operator="equal">
       <formula>$U$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S3">
-    <cfRule type="cellIs" dxfId="220" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="244" priority="32" operator="equal">
       <formula>$U$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="219" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="243" priority="33" operator="equal">
       <formula>$U$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S3">
-    <cfRule type="cellIs" dxfId="218" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="242" priority="31" operator="equal">
       <formula>$U$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S3">
-    <cfRule type="cellIs" dxfId="217" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="241" priority="30" operator="equal">
       <formula>$U$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S3">
-    <cfRule type="cellIs" dxfId="216" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="240" priority="29" operator="equal">
       <formula>$U$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5:K8 M5:S8">
-    <cfRule type="cellIs" dxfId="215" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="239" priority="28" operator="equal">
       <formula>$V$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D3 F10:K10 D5 M3:R3 G2:K2 E2:E5 G4:K9 M2:S2 M4:S10">
-    <cfRule type="cellIs" dxfId="214" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="238" priority="76" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="213" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="237" priority="77" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D3 M3:R3 G2:K2 D5 G4:K9 M4:S9 M2:S2">
-    <cfRule type="cellIs" dxfId="212" priority="88" operator="equal">
+    <cfRule type="cellIs" dxfId="236" priority="88" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L5:L8">
-    <cfRule type="cellIs" dxfId="211" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="235" priority="23" operator="equal">
       <formula>$V$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="210" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="234" priority="24" operator="equal">
       <formula>$V$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L9">
-    <cfRule type="cellIs" dxfId="209" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="233" priority="21" operator="equal">
       <formula>$W$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="208" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="232" priority="22" operator="equal">
       <formula>$W$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4">
-    <cfRule type="cellIs" dxfId="207" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="231" priority="19" operator="equal">
       <formula>$U$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="206" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="230" priority="20" operator="equal">
       <formula>$U$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4">
-    <cfRule type="cellIs" dxfId="205" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="229" priority="18" operator="equal">
       <formula>$U$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4">
-    <cfRule type="cellIs" dxfId="204" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="228" priority="16" operator="equal">
       <formula>$U$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="203" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="227" priority="17" operator="equal">
       <formula>$U$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4">
-    <cfRule type="cellIs" dxfId="202" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="226" priority="15" operator="equal">
       <formula>$U$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4">
-    <cfRule type="cellIs" dxfId="201" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="225" priority="13" operator="equal">
       <formula>$U$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4">
-    <cfRule type="cellIs" dxfId="200" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="224" priority="14" operator="equal">
       <formula>$U$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4">
-    <cfRule type="cellIs" dxfId="199" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="223" priority="12" operator="equal">
       <formula>$U$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L2">
-    <cfRule type="cellIs" dxfId="198" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="222" priority="10" operator="equal">
       <formula>$U$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="197" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="221" priority="11" operator="equal">
       <formula>$U$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L2">
-    <cfRule type="cellIs" dxfId="196" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="220" priority="9" operator="equal">
       <formula>$U$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L2">
-    <cfRule type="cellIs" dxfId="195" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="219" priority="8" operator="equal">
       <formula>$U$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L2">
-    <cfRule type="cellIs" dxfId="194" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="218" priority="7" operator="equal">
       <formula>$U$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L3">
-    <cfRule type="cellIs" dxfId="193" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="217" priority="5" operator="equal">
       <formula>$U$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="192" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="216" priority="6" operator="equal">
       <formula>$U$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L3">
-    <cfRule type="cellIs" dxfId="191" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="215" priority="4" operator="equal">
       <formula>$U$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L3">
-    <cfRule type="cellIs" dxfId="190" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="214" priority="3" operator="equal">
       <formula>$U$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L3">
-    <cfRule type="cellIs" dxfId="189" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="213" priority="2" operator="equal">
       <formula>$U$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L5:L8">
-    <cfRule type="cellIs" dxfId="188" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="212" priority="1" operator="equal">
       <formula>$V$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L2 L4:L10">
-    <cfRule type="cellIs" dxfId="187" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="211" priority="25" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="186" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="210" priority="26" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4:L9 L2">
-    <cfRule type="cellIs" dxfId="185" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="209" priority="27" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7519,8 +7642,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W9"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="K1" sqref="F1:K1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7550,101 +7673,101 @@
         <v>1</v>
       </c>
       <c r="C1" s="52" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D1" s="68" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E1" s="68" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F1" s="90" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="G1" s="91" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" s="91" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1" s="91" t="s">
         <v>34</v>
       </c>
-      <c r="H1" s="91" t="s">
+      <c r="J1" s="91" t="s">
+        <v>98</v>
+      </c>
+      <c r="K1" s="91" t="s">
+        <v>96</v>
+      </c>
+      <c r="L1" s="91" t="s">
+        <v>168</v>
+      </c>
+      <c r="M1" s="91" t="s">
         <v>35</v>
       </c>
-      <c r="I1" s="91" t="s">
+      <c r="N1" s="91" t="s">
         <v>36</v>
       </c>
-      <c r="J1" s="91" t="s">
-        <v>101</v>
-      </c>
-      <c r="K1" s="91" t="s">
-        <v>99</v>
-      </c>
-      <c r="L1" s="91" t="s">
-        <v>171</v>
-      </c>
-      <c r="M1" s="91" t="s">
+      <c r="O1" s="91" t="s">
         <v>37</v>
       </c>
-      <c r="N1" s="91" t="s">
+      <c r="P1" s="91" t="s">
         <v>38</v>
       </c>
-      <c r="O1" s="91" t="s">
+      <c r="Q1" s="90" t="s">
         <v>39</v>
       </c>
-      <c r="P1" s="91" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q1" s="90" t="s">
-        <v>41</v>
-      </c>
       <c r="R1" s="90" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="S1" s="91" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="T1" s="87" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="U1" s="87" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="V1" s="87" t="s">
+        <v>119</v>
+      </c>
+      <c r="W1" s="87" t="s">
         <v>122</v>
-      </c>
-      <c r="W1" s="87" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:23" ht="75" x14ac:dyDescent="0.25">
-      <c r="A2" s="152" t="s">
+      <c r="A2" s="154" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="168" t="s">
-        <v>49</v>
+      <c r="B2" s="170" t="s">
+        <v>47</v>
       </c>
       <c r="C2" s="75" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D2" s="76"/>
       <c r="E2" s="77"/>
       <c r="F2" s="60" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G2" s="60" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H2" s="60" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I2" s="60" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J2" s="60" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K2" s="60" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="L2" s="60" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="M2" s="53"/>
       <c r="N2" s="53"/>
@@ -7653,49 +7776,49 @@
       <c r="Q2" s="60"/>
       <c r="R2" s="25"/>
       <c r="S2" s="60" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="T2" s="95" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="U2" s="102" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="V2" s="101" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="W2" s="103" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:23" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A3" s="153"/>
-      <c r="B3" s="169"/>
+      <c r="A3" s="155"/>
+      <c r="B3" s="171"/>
       <c r="C3" s="72" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D3" s="73"/>
       <c r="E3" s="78"/>
       <c r="F3" s="60" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G3" s="60" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H3" s="60" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I3" s="60" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J3" s="60" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K3" s="60" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="L3" s="60" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="M3" s="54"/>
       <c r="N3" s="54"/>
@@ -7704,51 +7827,51 @@
       <c r="Q3" s="61"/>
       <c r="R3" s="25"/>
       <c r="S3" s="60" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="T3" s="89" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="U3" s="103" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="V3" s="102" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="W3" s="102" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:23" s="89" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="153"/>
-      <c r="B4" s="169"/>
-      <c r="C4" s="161" t="s">
-        <v>81</v>
+      <c r="A4" s="155"/>
+      <c r="B4" s="171"/>
+      <c r="C4" s="163" t="s">
+        <v>78</v>
       </c>
       <c r="D4" s="73"/>
       <c r="E4" s="78" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="F4" s="60" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G4" s="60" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="H4" s="60" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I4" s="60" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="J4" s="60" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="K4" s="60" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="L4" s="60" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="M4" s="54"/>
       <c r="N4" s="54"/>
@@ -7757,43 +7880,43 @@
       <c r="Q4" s="61"/>
       <c r="R4" s="25"/>
       <c r="S4" s="60" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="T4" s="95" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="U4" s="103"/>
       <c r="V4" s="102"/>
       <c r="W4" s="102"/>
     </row>
     <row r="5" spans="1:23" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="153"/>
-      <c r="B5" s="169"/>
-      <c r="C5" s="161"/>
+      <c r="A5" s="155"/>
+      <c r="B5" s="171"/>
+      <c r="C5" s="163"/>
       <c r="D5" s="73"/>
       <c r="E5" s="78" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F5" s="60" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G5" s="60" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H5" s="60" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I5" s="60" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J5" s="60" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K5" s="60" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="L5" s="60" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="M5" s="54"/>
       <c r="N5" s="54"/>
@@ -7802,50 +7925,50 @@
       <c r="Q5" s="61"/>
       <c r="R5" s="25"/>
       <c r="S5" s="60" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="T5" s="95" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="U5" s="101" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="V5" s="103" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="W5" s="95"/>
     </row>
     <row r="6" spans="1:23" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="153"/>
-      <c r="B6" s="169"/>
+      <c r="A6" s="155"/>
+      <c r="B6" s="171"/>
       <c r="C6" s="72" t="str">
         <f>'Detalles plan de riesgo'!H5</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="D6" s="72" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E6" s="78"/>
       <c r="F6" s="61" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G6" s="61" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H6" s="61" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I6" s="61" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J6" s="61" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K6" s="61" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="L6" s="61" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="M6" s="54"/>
       <c r="N6" s="54"/>
@@ -7854,46 +7977,46 @@
       <c r="Q6" s="61"/>
       <c r="R6" s="25"/>
       <c r="S6" s="61" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="T6" s="128" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="U6" s="103" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7" spans="1:23" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="153"/>
-      <c r="B7" s="169"/>
+      <c r="A7" s="155"/>
+      <c r="B7" s="171"/>
       <c r="C7" s="72" t="str">
         <f>'Detalles plan de riesgo'!H6</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="D7" s="85" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E7" s="78"/>
       <c r="F7" s="61" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G7" s="61" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H7" s="61" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I7" s="61" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J7" s="61" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K7" s="61" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="L7" s="61" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="M7" s="54"/>
       <c r="N7" s="54"/>
@@ -7902,37 +8025,37 @@
       <c r="Q7" s="61"/>
       <c r="R7" s="25"/>
       <c r="S7" s="61" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:23" s="89" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="153"/>
-      <c r="B8" s="158" t="s">
-        <v>124</v>
-      </c>
-      <c r="C8" s="159"/>
-      <c r="D8" s="159"/>
-      <c r="E8" s="160"/>
+      <c r="A8" s="155"/>
+      <c r="B8" s="160" t="s">
+        <v>121</v>
+      </c>
+      <c r="C8" s="161"/>
+      <c r="D8" s="161"/>
+      <c r="E8" s="162"/>
       <c r="F8" s="61" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G8" s="61" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H8" s="61" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I8" s="61" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J8" s="61" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K8" s="61" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="L8" s="61" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="M8" s="54"/>
       <c r="N8" s="54"/>
@@ -7941,31 +8064,31 @@
       <c r="Q8" s="61"/>
       <c r="R8" s="25"/>
       <c r="S8" s="61" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:23" ht="300.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="154"/>
-      <c r="B9" s="170" t="s">
-        <v>47</v>
-      </c>
-      <c r="C9" s="157"/>
-      <c r="D9" s="157"/>
-      <c r="E9" s="171"/>
+      <c r="A9" s="156"/>
+      <c r="B9" s="172" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="159"/>
+      <c r="D9" s="159"/>
+      <c r="E9" s="173"/>
       <c r="F9" s="71" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G9" s="55"/>
       <c r="H9" s="55"/>
       <c r="I9" s="55"/>
       <c r="J9" s="84" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="K9" s="84" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="L9" s="84" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="M9" s="55"/>
       <c r="N9" s="55"/>
@@ -7974,7 +8097,7 @@
       <c r="Q9" s="64"/>
       <c r="R9" s="88"/>
       <c r="S9" s="84" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -7986,414 +8109,414 @@
     <mergeCell ref="C4:C5"/>
   </mergeCells>
   <conditionalFormatting sqref="F2:F5 L2:L5">
-    <cfRule type="cellIs" dxfId="184" priority="107" operator="equal">
+    <cfRule type="cellIs" dxfId="208" priority="107" operator="equal">
       <formula>$U$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="183" priority="108" operator="equal">
+    <cfRule type="cellIs" dxfId="207" priority="108" operator="equal">
       <formula>$U$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F5 L2:L5">
-    <cfRule type="cellIs" dxfId="182" priority="106" operator="equal">
+    <cfRule type="cellIs" dxfId="206" priority="106" operator="equal">
       <formula>$U$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F8 L8">
-    <cfRule type="cellIs" dxfId="181" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="205" priority="44" operator="equal">
       <formula>$W$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="180" priority="105" operator="equal">
+    <cfRule type="cellIs" dxfId="204" priority="105" operator="equal">
       <formula>$W$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2 L2:L5">
-    <cfRule type="cellIs" dxfId="179" priority="86" operator="equal">
+    <cfRule type="cellIs" dxfId="203" priority="86" operator="equal">
       <formula>$U$6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:J5">
-    <cfRule type="cellIs" dxfId="178" priority="84" operator="equal">
+    <cfRule type="cellIs" dxfId="202" priority="84" operator="equal">
       <formula>$U$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="177" priority="85" operator="equal">
+    <cfRule type="cellIs" dxfId="201" priority="85" operator="equal">
       <formula>$U$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:J5">
-    <cfRule type="cellIs" dxfId="176" priority="83" operator="equal">
+    <cfRule type="cellIs" dxfId="200" priority="83" operator="equal">
       <formula>$U$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:J5">
-    <cfRule type="cellIs" dxfId="175" priority="82" operator="equal">
+    <cfRule type="cellIs" dxfId="199" priority="82" operator="equal">
       <formula>$U$6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F5">
-    <cfRule type="cellIs" dxfId="174" priority="81" operator="equal">
+    <cfRule type="cellIs" dxfId="198" priority="81" operator="equal">
       <formula>$U$6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6:J7 L6:L7">
-    <cfRule type="cellIs" dxfId="173" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="197" priority="79" operator="equal">
       <formula>$V$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="172" priority="80" operator="equal">
+    <cfRule type="cellIs" dxfId="196" priority="80" operator="equal">
       <formula>$V$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6:J7 L6:L7">
-    <cfRule type="cellIs" dxfId="171" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="195" priority="78" operator="equal">
       <formula>$V$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6:J7">
-    <cfRule type="cellIs" dxfId="170" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="194" priority="76" operator="equal">
       <formula>$V$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="169" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="193" priority="77" operator="equal">
       <formula>$V$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6:J7">
-    <cfRule type="cellIs" dxfId="168" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="192" priority="75" operator="equal">
       <formula>$V$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:J4">
-    <cfRule type="cellIs" dxfId="167" priority="73" operator="equal">
+    <cfRule type="cellIs" dxfId="191" priority="73" operator="equal">
       <formula>$U$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="166" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="190" priority="74" operator="equal">
       <formula>$U$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:J4">
-    <cfRule type="cellIs" dxfId="165" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="189" priority="72" operator="equal">
       <formula>$U$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:J4">
-    <cfRule type="cellIs" dxfId="164" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="188" priority="71" operator="equal">
       <formula>$U$6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F5">
-    <cfRule type="cellIs" dxfId="163" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="187" priority="70" operator="equal">
       <formula>$U$6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5:J5">
-    <cfRule type="cellIs" dxfId="162" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="186" priority="68" operator="equal">
       <formula>$U$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="161" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="185" priority="69" operator="equal">
       <formula>$U$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5:J5">
-    <cfRule type="cellIs" dxfId="160" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="184" priority="67" operator="equal">
       <formula>$U$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5:J5">
-    <cfRule type="cellIs" dxfId="159" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="183" priority="66" operator="equal">
       <formula>$U$6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W3:W4">
-    <cfRule type="cellIs" dxfId="158" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="182" priority="64" operator="equal">
       <formula>$W$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:J5 F9:J9 M6:R8 L9:R9 L2:R5">
-    <cfRule type="cellIs" dxfId="157" priority="125" operator="equal">
+    <cfRule type="cellIs" dxfId="181" priority="125" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="156" priority="126" operator="equal">
+    <cfRule type="cellIs" dxfId="180" priority="126" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:J8 L2:R8">
-    <cfRule type="cellIs" dxfId="155" priority="131" operator="equal">
+    <cfRule type="cellIs" dxfId="179" priority="131" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D5 E2:E7 G6:J8 L6:L8">
-    <cfRule type="cellIs" dxfId="154" priority="133" operator="equal">
+    <cfRule type="cellIs" dxfId="178" priority="133" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="153" priority="134" operator="equal">
+    <cfRule type="cellIs" dxfId="177" priority="134" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="cellIs" dxfId="152" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="176" priority="59" operator="equal">
       <formula>$V$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="151" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="175" priority="60" operator="equal">
       <formula>$V$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="cellIs" dxfId="150" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="174" priority="58" operator="equal">
       <formula>$V$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="cellIs" dxfId="149" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="173" priority="56" operator="equal">
       <formula>$V$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="148" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="172" priority="57" operator="equal">
       <formula>$V$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="cellIs" dxfId="147" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="171" priority="55" operator="equal">
       <formula>$V$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="cellIs" dxfId="146" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="170" priority="61" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="cellIs" dxfId="145" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="169" priority="62" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="144" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="168" priority="63" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7">
-    <cfRule type="cellIs" dxfId="143" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="167" priority="50" operator="equal">
       <formula>$V$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="142" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="166" priority="51" operator="equal">
       <formula>$V$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7">
-    <cfRule type="cellIs" dxfId="141" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="165" priority="49" operator="equal">
       <formula>$V$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7">
-    <cfRule type="cellIs" dxfId="140" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="164" priority="47" operator="equal">
       <formula>$V$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="139" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="163" priority="48" operator="equal">
       <formula>$V$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7">
-    <cfRule type="cellIs" dxfId="138" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="162" priority="46" operator="equal">
       <formula>$V$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7">
-    <cfRule type="cellIs" dxfId="137" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="161" priority="52" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7">
-    <cfRule type="cellIs" dxfId="136" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="160" priority="53" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="135" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="159" priority="54" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8:J8 L8">
-    <cfRule type="cellIs" dxfId="134" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="158" priority="45" operator="equal">
       <formula>$W$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8:J8">
-    <cfRule type="cellIs" dxfId="133" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="157" priority="42" operator="equal">
       <formula>$W$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="132" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="156" priority="43" operator="equal">
       <formula>$W$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:K5">
-    <cfRule type="cellIs" dxfId="131" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="155" priority="35" operator="equal">
       <formula>$U$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="130" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="154" priority="36" operator="equal">
       <formula>$U$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:K5">
-    <cfRule type="cellIs" dxfId="129" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="153" priority="34" operator="equal">
       <formula>$U$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:K5">
-    <cfRule type="cellIs" dxfId="128" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="152" priority="33" operator="equal">
       <formula>$U$6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6:K7">
-    <cfRule type="cellIs" dxfId="127" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="151" priority="31" operator="equal">
       <formula>$V$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="126" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="150" priority="32" operator="equal">
       <formula>$V$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6:K7">
-    <cfRule type="cellIs" dxfId="125" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="149" priority="30" operator="equal">
       <formula>$V$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6:K7">
-    <cfRule type="cellIs" dxfId="124" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="148" priority="28" operator="equal">
       <formula>$V$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="123" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="147" priority="29" operator="equal">
       <formula>$V$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6:K7">
-    <cfRule type="cellIs" dxfId="122" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="146" priority="27" operator="equal">
       <formula>$V$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:K4">
-    <cfRule type="cellIs" dxfId="121" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="145" priority="25" operator="equal">
       <formula>$U$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="120" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="144" priority="26" operator="equal">
       <formula>$U$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:K4">
-    <cfRule type="cellIs" dxfId="119" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="143" priority="24" operator="equal">
       <formula>$U$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:K4">
-    <cfRule type="cellIs" dxfId="118" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="142" priority="23" operator="equal">
       <formula>$U$6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5">
-    <cfRule type="cellIs" dxfId="117" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="141" priority="21" operator="equal">
       <formula>$U$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="116" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="140" priority="22" operator="equal">
       <formula>$U$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5">
-    <cfRule type="cellIs" dxfId="115" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="139" priority="20" operator="equal">
       <formula>$U$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5">
-    <cfRule type="cellIs" dxfId="114" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="138" priority="19" operator="equal">
       <formula>$U$6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K9 K2:K5">
-    <cfRule type="cellIs" dxfId="113" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="137" priority="37" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="112" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="136" priority="38" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:K8">
-    <cfRule type="cellIs" dxfId="111" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="135" priority="39" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6:K8">
-    <cfRule type="cellIs" dxfId="110" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="134" priority="40" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="109" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="133" priority="41" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K8">
-    <cfRule type="cellIs" dxfId="108" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="132" priority="18" operator="equal">
       <formula>$W$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K8">
-    <cfRule type="cellIs" dxfId="107" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="131" priority="16" operator="equal">
       <formula>$W$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="106" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="130" priority="17" operator="equal">
       <formula>$W$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S2:S5">
-    <cfRule type="cellIs" dxfId="105" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="129" priority="9" operator="equal">
       <formula>$U$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="104" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="128" priority="10" operator="equal">
       <formula>$U$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S2:S5">
-    <cfRule type="cellIs" dxfId="103" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="127" priority="8" operator="equal">
       <formula>$U$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S8">
-    <cfRule type="cellIs" dxfId="102" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="126" priority="1" operator="equal">
       <formula>$W$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="101" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="125" priority="7" operator="equal">
       <formula>$W$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S2:S5">
-    <cfRule type="cellIs" dxfId="100" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="124" priority="6" operator="equal">
       <formula>$U$6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S6:S7">
-    <cfRule type="cellIs" dxfId="99" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="123" priority="4" operator="equal">
       <formula>$V$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="98" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="122" priority="5" operator="equal">
       <formula>$V$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S6:S7">
-    <cfRule type="cellIs" dxfId="97" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="121" priority="3" operator="equal">
       <formula>$V$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S9 S2:S5">
-    <cfRule type="cellIs" dxfId="96" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="120" priority="11" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="95" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="119" priority="12" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S2:S8">
-    <cfRule type="cellIs" dxfId="94" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="118" priority="13" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S6:S8">
-    <cfRule type="cellIs" dxfId="93" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="117" priority="14" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="92" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="116" priority="15" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S8">
-    <cfRule type="cellIs" dxfId="91" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="115" priority="2" operator="equal">
       <formula>$W$2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8421,8 +8544,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W6"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8449,101 +8572,101 @@
         <v>1</v>
       </c>
       <c r="C1" s="52" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D1" s="68" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E1" s="68" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F1" s="90" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="G1" s="91" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" s="91" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1" s="91" t="s">
         <v>34</v>
       </c>
-      <c r="H1" s="91" t="s">
+      <c r="J1" s="91" t="s">
+        <v>98</v>
+      </c>
+      <c r="K1" s="91" t="s">
+        <v>96</v>
+      </c>
+      <c r="L1" s="91" t="s">
+        <v>168</v>
+      </c>
+      <c r="M1" s="91" t="s">
         <v>35</v>
       </c>
-      <c r="I1" s="91" t="s">
+      <c r="N1" s="91" t="s">
         <v>36</v>
       </c>
-      <c r="J1" s="91" t="s">
-        <v>101</v>
-      </c>
-      <c r="K1" s="91" t="s">
-        <v>99</v>
-      </c>
-      <c r="L1" s="91" t="s">
-        <v>171</v>
-      </c>
-      <c r="M1" s="91" t="s">
+      <c r="O1" s="91" t="s">
         <v>37</v>
       </c>
-      <c r="N1" s="91" t="s">
+      <c r="P1" s="91" t="s">
         <v>38</v>
       </c>
-      <c r="O1" s="91" t="s">
+      <c r="Q1" s="90" t="s">
         <v>39</v>
       </c>
-      <c r="P1" s="91" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q1" s="90" t="s">
-        <v>41</v>
-      </c>
       <c r="R1" s="90" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="S1" s="91" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="T1" s="87" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="U1" s="87" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="V1" s="87" t="s">
+        <v>119</v>
+      </c>
+      <c r="W1" s="87" t="s">
         <v>122</v>
-      </c>
-      <c r="W1" s="87" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:23" ht="60" x14ac:dyDescent="0.25">
-      <c r="A2" s="152" t="s">
+      <c r="A2" s="154" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="168" t="s">
-        <v>20</v>
+      <c r="B2" s="170" t="s">
+        <v>174</v>
       </c>
       <c r="C2" s="75" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D2" s="76"/>
       <c r="E2" s="77"/>
       <c r="F2" s="60" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G2" s="60" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="H2" s="60" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I2" s="60" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="J2" s="60" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="K2" s="60" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="L2" s="60" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="M2" s="53"/>
       <c r="N2" s="53"/>
@@ -8552,51 +8675,51 @@
       <c r="Q2" s="60"/>
       <c r="R2" s="25"/>
       <c r="S2" s="60" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="T2" s="95" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="U2" s="102" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="V2" s="101" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="W2" s="103" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="153"/>
-      <c r="B3" s="169"/>
+      <c r="A3" s="155"/>
+      <c r="B3" s="171"/>
       <c r="C3" s="72" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D3" s="73"/>
       <c r="E3" s="78" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F3" s="60" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G3" s="60" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="H3" s="60" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="I3" s="60" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="J3" s="60" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="K3" s="60" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="L3" s="60" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="M3" s="54"/>
       <c r="N3" s="54"/>
@@ -8605,52 +8728,52 @@
       <c r="Q3" s="61"/>
       <c r="R3" s="25"/>
       <c r="S3" s="60" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="T3" s="95" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="U3" s="103" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="V3" s="102" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="W3" s="102" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:23" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="153"/>
-      <c r="B4" s="169"/>
+      <c r="A4" s="155"/>
+      <c r="B4" s="171"/>
       <c r="C4" s="72" t="str">
         <f>'Detalles plan de riesgo'!H6</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="D4" s="72" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E4" s="78"/>
       <c r="F4" s="61" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G4" s="61" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H4" s="61" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I4" s="61" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J4" s="61" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K4" s="61" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="L4" s="61" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="M4" s="54"/>
       <c r="N4" s="54"/>
@@ -8659,44 +8782,44 @@
       <c r="Q4" s="61"/>
       <c r="R4" s="25"/>
       <c r="S4" s="61" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="U4" s="101" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="V4" s="103" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="W4" s="95"/>
     </row>
     <row r="5" spans="1:23" s="89" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="153"/>
-      <c r="B5" s="158" t="s">
-        <v>124</v>
-      </c>
-      <c r="C5" s="159"/>
-      <c r="D5" s="159"/>
-      <c r="E5" s="160"/>
+      <c r="A5" s="155"/>
+      <c r="B5" s="160" t="s">
+        <v>121</v>
+      </c>
+      <c r="C5" s="161"/>
+      <c r="D5" s="161"/>
+      <c r="E5" s="162"/>
       <c r="F5" s="61" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G5" s="61" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H5" s="61" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I5" s="61" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J5" s="61" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K5" s="61" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="L5" s="61" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="M5" s="54"/>
       <c r="N5" s="54"/>
@@ -8705,35 +8828,35 @@
       <c r="Q5" s="61"/>
       <c r="R5" s="25"/>
       <c r="S5" s="61" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="U5" s="103" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="W5" s="95"/>
     </row>
     <row r="6" spans="1:23" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="154"/>
-      <c r="B6" s="170" t="s">
-        <v>47</v>
-      </c>
-      <c r="C6" s="157"/>
-      <c r="D6" s="157"/>
-      <c r="E6" s="171"/>
+      <c r="A6" s="156"/>
+      <c r="B6" s="172" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="159"/>
+      <c r="D6" s="159"/>
+      <c r="E6" s="173"/>
       <c r="F6" s="71" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="G6" s="55"/>
       <c r="H6" s="84" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="I6" s="55"/>
       <c r="J6" s="55"/>
       <c r="K6" s="84" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="L6" s="84" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="M6" s="55"/>
       <c r="N6" s="55"/>
@@ -8742,7 +8865,7 @@
       <c r="Q6" s="64"/>
       <c r="R6" s="88"/>
       <c r="S6" s="84" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -8753,103 +8876,103 @@
     <mergeCell ref="B5:E5"/>
   </mergeCells>
   <conditionalFormatting sqref="W3">
-    <cfRule type="cellIs" dxfId="90" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="114" priority="22" operator="equal">
       <formula>$W$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:J3 L2:L3">
-    <cfRule type="cellIs" dxfId="89" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="113" priority="19" operator="equal">
       <formula>$U$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:K3 K6">
-    <cfRule type="cellIs" dxfId="88" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="112" priority="14" operator="equal">
       <formula>$U$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="87" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="111" priority="15" operator="equal">
       <formula>$U$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:K5">
-    <cfRule type="cellIs" dxfId="86" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="110" priority="16" operator="equal">
       <formula>$U$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4:K5">
-    <cfRule type="cellIs" dxfId="85" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="17" operator="equal">
       <formula>$V$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="18" operator="equal">
       <formula>$V$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:K3">
-    <cfRule type="cellIs" dxfId="83" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="107" priority="13" operator="equal">
       <formula>$U$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:L3">
-    <cfRule type="cellIs" dxfId="82" priority="116" operator="equal">
+    <cfRule type="cellIs" dxfId="106" priority="116" operator="equal">
       <formula>$U$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="117" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="117" operator="equal">
       <formula>$U$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="80" priority="122" operator="equal">
+    <cfRule type="cellIs" dxfId="104" priority="122" operator="equal">
       <formula>$U$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:L4">
-    <cfRule type="cellIs" dxfId="79" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="103" priority="12" operator="equal">
       <formula>$V$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="127" operator="equal">
+    <cfRule type="cellIs" dxfId="102" priority="127" operator="equal">
       <formula>$V$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="77" priority="128" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="128" operator="equal">
       <formula>$V$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5:L5">
-    <cfRule type="cellIs" dxfId="76" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="10" operator="equal">
       <formula>$W$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="75" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="11" operator="equal">
       <formula>$W$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S2:S3">
-    <cfRule type="cellIs" dxfId="74" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="4" operator="equal">
       <formula>$U$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S2:S3">
-    <cfRule type="cellIs" dxfId="73" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="5" operator="equal">
       <formula>$U$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="6" operator="equal">
       <formula>$U$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="71" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="7" operator="equal">
       <formula>$U$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S4">
-    <cfRule type="cellIs" dxfId="70" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="3" operator="equal">
       <formula>$V$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="8" operator="equal">
       <formula>$V$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="9" operator="equal">
       <formula>$V$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S5">
-    <cfRule type="cellIs" dxfId="67" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="1" operator="equal">
       <formula>$W$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="2" operator="equal">
       <formula>$W$2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8877,8 +9000,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W9"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="T3" sqref="T3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8906,103 +9029,103 @@
         <v>1</v>
       </c>
       <c r="C1" s="52" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D1" s="68" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E1" s="68" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F1" s="90" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="G1" s="91" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" s="91" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1" s="91" t="s">
         <v>34</v>
       </c>
-      <c r="H1" s="91" t="s">
+      <c r="J1" s="91" t="s">
+        <v>98</v>
+      </c>
+      <c r="K1" s="91" t="s">
+        <v>96</v>
+      </c>
+      <c r="L1" s="91" t="s">
+        <v>170</v>
+      </c>
+      <c r="M1" s="91" t="s">
         <v>35</v>
       </c>
-      <c r="I1" s="91" t="s">
+      <c r="N1" s="91" t="s">
         <v>36</v>
       </c>
-      <c r="J1" s="91" t="s">
-        <v>101</v>
-      </c>
-      <c r="K1" s="91" t="s">
-        <v>99</v>
-      </c>
-      <c r="L1" s="91" t="s">
-        <v>173</v>
-      </c>
-      <c r="M1" s="91" t="s">
+      <c r="O1" s="91" t="s">
         <v>37</v>
       </c>
-      <c r="N1" s="91" t="s">
+      <c r="P1" s="91" t="s">
         <v>38</v>
       </c>
-      <c r="O1" s="91" t="s">
+      <c r="Q1" s="90" t="s">
         <v>39</v>
       </c>
-      <c r="P1" s="91" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q1" s="90" t="s">
-        <v>41</v>
-      </c>
       <c r="R1" s="90" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="S1" s="91" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="T1" s="87" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="U1" s="87" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="V1" s="87" t="s">
+        <v>119</v>
+      </c>
+      <c r="W1" s="87" t="s">
         <v>122</v>
-      </c>
-      <c r="W1" s="87" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:23" ht="102" x14ac:dyDescent="0.25">
-      <c r="A2" s="152" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="168" t="s">
-        <v>50</v>
+      <c r="A2" s="154" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="170" t="s">
+        <v>172</v>
       </c>
       <c r="C2" s="98" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D2" s="76"/>
       <c r="E2" s="77" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F2" s="60" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G2" s="60" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H2" s="60" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I2" s="60" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J2" s="60" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K2" s="60" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="L2" s="60" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="M2" s="53"/>
       <c r="N2" s="53"/>
@@ -9011,48 +9134,48 @@
       <c r="Q2" s="60"/>
       <c r="R2" s="25"/>
       <c r="S2" s="60" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="U2" s="102" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="V2" s="101" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="W2" s="103" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:23" ht="51" x14ac:dyDescent="0.25">
-      <c r="A3" s="153"/>
-      <c r="B3" s="169"/>
+      <c r="A3" s="155"/>
+      <c r="B3" s="171"/>
       <c r="C3" s="94" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D3" s="73"/>
       <c r="E3" s="78" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F3" s="60" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G3" s="60" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="H3" s="60" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I3" s="60" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="J3" s="60" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="K3" s="60" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="L3" s="60" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="M3" s="54"/>
       <c r="N3" s="54"/>
@@ -9061,49 +9184,49 @@
       <c r="Q3" s="61"/>
       <c r="R3" s="25"/>
       <c r="S3" s="60" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="T3" s="89" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="U3" s="103" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="V3" s="102" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="W3" s="102" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:23" ht="51" x14ac:dyDescent="0.25">
-      <c r="A4" s="153"/>
-      <c r="B4" s="169"/>
+      <c r="A4" s="155"/>
+      <c r="B4" s="171"/>
       <c r="C4" s="94" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D4" s="73"/>
       <c r="E4" s="78"/>
       <c r="F4" s="60" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G4" s="60" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H4" s="60" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I4" s="60" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J4" s="60" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K4" s="60" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="L4" s="60" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="M4" s="54"/>
       <c r="N4" s="54"/>
@@ -9112,44 +9235,44 @@
       <c r="Q4" s="61"/>
       <c r="R4" s="25"/>
       <c r="S4" s="60" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="U4" s="101" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="V4" s="103" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="W4" s="95"/>
     </row>
     <row r="5" spans="1:23" ht="76.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="153"/>
-      <c r="B5" s="169"/>
+      <c r="A5" s="155"/>
+      <c r="B5" s="171"/>
       <c r="C5" s="92"/>
       <c r="D5" s="92" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E5" s="78"/>
       <c r="F5" s="61" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G5" s="61" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H5" s="61" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I5" s="61" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J5" s="61" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K5" s="61" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="L5" s="61" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="M5" s="54"/>
       <c r="N5" s="54"/>
@@ -9158,41 +9281,41 @@
       <c r="Q5" s="61"/>
       <c r="R5" s="25"/>
       <c r="S5" s="61" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="U5" s="103" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="W5" s="95"/>
     </row>
     <row r="6" spans="1:23" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="153"/>
-      <c r="B6" s="169"/>
+      <c r="A6" s="155"/>
+      <c r="B6" s="171"/>
       <c r="C6" s="92"/>
       <c r="D6" s="92" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E6" s="78"/>
       <c r="F6" s="61" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G6" s="61" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H6" s="61" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I6" s="61" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J6" s="61" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K6" s="61" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="L6" s="61" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="M6" s="54"/>
       <c r="N6" s="54"/>
@@ -9201,40 +9324,40 @@
       <c r="Q6" s="61"/>
       <c r="R6" s="25"/>
       <c r="S6" s="61" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="T6" s="95" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:23" s="89" customFormat="1" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="153"/>
+      <c r="A7" s="155"/>
       <c r="B7" s="93"/>
       <c r="C7" s="92"/>
       <c r="D7" s="92" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E7" s="78"/>
       <c r="F7" s="61" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G7" s="61" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H7" s="61" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I7" s="61" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J7" s="61" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K7" s="61" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="L7" s="61" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="M7" s="54"/>
       <c r="N7" s="54"/>
@@ -9243,38 +9366,38 @@
       <c r="Q7" s="61"/>
       <c r="R7" s="25"/>
       <c r="S7" s="61" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="T7" s="95"/>
     </row>
     <row r="8" spans="1:23" s="89" customFormat="1" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="153"/>
-      <c r="B8" s="158" t="s">
-        <v>124</v>
-      </c>
-      <c r="C8" s="159"/>
-      <c r="D8" s="159"/>
-      <c r="E8" s="160"/>
+      <c r="A8" s="155"/>
+      <c r="B8" s="160" t="s">
+        <v>121</v>
+      </c>
+      <c r="C8" s="161"/>
+      <c r="D8" s="161"/>
+      <c r="E8" s="162"/>
       <c r="F8" s="61" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G8" s="61" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H8" s="61" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I8" s="61" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J8" s="61" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K8" s="61" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="L8" s="61" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="M8" s="54"/>
       <c r="N8" s="54"/>
@@ -9283,18 +9406,18 @@
       <c r="Q8" s="61"/>
       <c r="R8" s="25"/>
       <c r="S8" s="61" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="T8" s="95" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9" spans="1:23" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="154"/>
-      <c r="B9" s="170" t="s">
-        <v>47</v>
-      </c>
-      <c r="C9" s="157"/>
+      <c r="A9" s="156"/>
+      <c r="B9" s="172" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="159"/>
       <c r="D9" s="82"/>
       <c r="E9" s="80"/>
       <c r="F9" s="64"/>
@@ -9302,10 +9425,10 @@
       <c r="H9" s="55"/>
       <c r="I9" s="55"/>
       <c r="J9" s="84" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="K9" s="84" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="L9" s="84"/>
       <c r="M9" s="55"/>
@@ -9324,73 +9447,73 @@
     <mergeCell ref="B8:E8"/>
   </mergeCells>
   <conditionalFormatting sqref="W3">
-    <cfRule type="cellIs" dxfId="65" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="14" operator="equal">
       <formula>$W$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:L4">
-    <cfRule type="cellIs" dxfId="64" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="13" operator="equal">
       <formula>$U$5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="63" priority="134" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="134" operator="equal">
       <formula>$U$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="135" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="135" operator="equal">
       <formula>$U$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="146" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="146" operator="equal">
       <formula>$U$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5:L7">
-    <cfRule type="cellIs" dxfId="60" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="12" operator="equal">
       <formula>$V$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="59" priority="140" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="140" operator="equal">
       <formula>$V$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="141" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="141" operator="equal">
       <formula>$V$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F8:L8">
-    <cfRule type="cellIs" dxfId="57" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="10" operator="equal">
       <formula>$W$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="11" operator="equal">
       <formula>$W$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S2:S4">
-    <cfRule type="cellIs" dxfId="55" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="4" operator="equal">
       <formula>$U$5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="5" operator="equal">
       <formula>$U$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="53" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="6" operator="equal">
       <formula>$U$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="9" operator="equal">
       <formula>$U$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S5:S7">
-    <cfRule type="cellIs" dxfId="51" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="3" operator="equal">
       <formula>$V$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="7" operator="equal">
       <formula>$V$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="8" operator="equal">
       <formula>$V$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S8">
-    <cfRule type="cellIs" dxfId="48" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="1" operator="equal">
       <formula>$W$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="47" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="2" operator="equal">
       <formula>$W$2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9418,8 +9541,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W7"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K1" sqref="F1:K1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="A1:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9445,103 +9568,103 @@
         <v>1</v>
       </c>
       <c r="C1" s="52" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D1" s="68" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E1" s="68" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F1" s="90" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="G1" s="91" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" s="91" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1" s="91" t="s">
         <v>34</v>
       </c>
-      <c r="H1" s="91" t="s">
+      <c r="J1" s="91" t="s">
+        <v>98</v>
+      </c>
+      <c r="K1" s="91" t="s">
+        <v>96</v>
+      </c>
+      <c r="L1" s="91" t="s">
+        <v>168</v>
+      </c>
+      <c r="M1" s="91" t="s">
         <v>35</v>
       </c>
-      <c r="I1" s="91" t="s">
+      <c r="N1" s="91" t="s">
         <v>36</v>
       </c>
-      <c r="J1" s="91" t="s">
-        <v>101</v>
-      </c>
-      <c r="K1" s="91" t="s">
-        <v>99</v>
-      </c>
-      <c r="L1" s="91" t="s">
-        <v>171</v>
-      </c>
-      <c r="M1" s="91" t="s">
+      <c r="O1" s="91" t="s">
         <v>37</v>
       </c>
-      <c r="N1" s="91" t="s">
+      <c r="P1" s="91" t="s">
         <v>38</v>
       </c>
-      <c r="O1" s="91" t="s">
+      <c r="Q1" s="90" t="s">
         <v>39</v>
       </c>
-      <c r="P1" s="91" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q1" s="90" t="s">
-        <v>41</v>
-      </c>
       <c r="R1" s="90" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="S1" s="91" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="T1" s="87" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="U1" s="87" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="V1" s="87" t="s">
+        <v>119</v>
+      </c>
+      <c r="W1" s="87" t="s">
         <v>122</v>
-      </c>
-      <c r="W1" s="87" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:23" ht="76.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="152" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2" s="168" t="s">
-        <v>33</v>
+      <c r="A2" s="154" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="170" t="s">
+        <v>31</v>
       </c>
       <c r="C2" s="57" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D2" s="76"/>
       <c r="E2" s="77" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F2" s="60" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G2" s="60" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H2" s="60" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I2" s="60" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J2" s="60" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K2" s="60" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="L2" s="60" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="M2" s="53"/>
       <c r="N2" s="53"/>
@@ -9550,51 +9673,51 @@
       <c r="Q2" s="60"/>
       <c r="R2" s="25"/>
       <c r="S2" s="60" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="T2" s="95" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="U2" s="102" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="V2" s="101" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="W2" s="103" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:23" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="153"/>
-      <c r="B3" s="169"/>
+      <c r="A3" s="155"/>
+      <c r="B3" s="171"/>
       <c r="C3" s="94" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D3" s="25"/>
       <c r="E3" s="78" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F3" s="129" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G3" s="129" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="H3" s="129" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="I3" s="129" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="J3" s="129" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="K3" s="129" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="L3" s="129" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="M3" s="54"/>
       <c r="N3" s="54"/>
@@ -9603,46 +9726,46 @@
       <c r="Q3" s="61"/>
       <c r="R3" s="25"/>
       <c r="S3" s="129" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="U3" s="103" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="V3" s="102" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="W3" s="102" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:23" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="153"/>
-      <c r="B4" s="169"/>
+      <c r="A4" s="155"/>
+      <c r="B4" s="171"/>
       <c r="C4" s="72"/>
       <c r="D4" s="74" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E4" s="78"/>
       <c r="F4" s="61" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G4" s="61" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H4" s="61" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I4" s="61" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J4" s="61" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K4" s="61" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="L4" s="61" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="M4" s="54"/>
       <c r="N4" s="54"/>
@@ -9651,47 +9774,47 @@
       <c r="Q4" s="61"/>
       <c r="R4" s="25"/>
       <c r="S4" s="61" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="U4" s="101" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="V4" s="103" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="W4" s="95"/>
     </row>
     <row r="5" spans="1:23" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="153"/>
-      <c r="B5" s="169"/>
+      <c r="A5" s="155"/>
+      <c r="B5" s="171"/>
       <c r="C5" s="72" t="str">
         <f>'Detalles plan de riesgo'!H5</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="D5" s="74" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E5" s="78"/>
       <c r="F5" s="61" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G5" s="61" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H5" s="61" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I5" s="61" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J5" s="61" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K5" s="61" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="L5" s="61" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="M5" s="54"/>
       <c r="N5" s="54"/>
@@ -9700,41 +9823,41 @@
       <c r="Q5" s="61"/>
       <c r="R5" s="25"/>
       <c r="S5" s="61" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="U5" s="103" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="W5" s="95"/>
     </row>
     <row r="6" spans="1:23" s="89" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="153"/>
-      <c r="B6" s="158" t="s">
-        <v>124</v>
-      </c>
-      <c r="C6" s="159"/>
-      <c r="D6" s="159"/>
-      <c r="E6" s="160"/>
+      <c r="A6" s="155"/>
+      <c r="B6" s="160" t="s">
+        <v>121</v>
+      </c>
+      <c r="C6" s="161"/>
+      <c r="D6" s="161"/>
+      <c r="E6" s="162"/>
       <c r="F6" s="61" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G6" s="61" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H6" s="61" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I6" s="61" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J6" s="61" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K6" s="61" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="L6" s="61" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="M6" s="54"/>
       <c r="N6" s="54"/>
@@ -9743,16 +9866,16 @@
       <c r="Q6" s="61"/>
       <c r="R6" s="25"/>
       <c r="S6" s="61" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="W6" s="95"/>
     </row>
     <row r="7" spans="1:23" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="154"/>
-      <c r="B7" s="170" t="s">
-        <v>47</v>
-      </c>
-      <c r="C7" s="157"/>
+      <c r="A7" s="156"/>
+      <c r="B7" s="172" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="159"/>
       <c r="D7" s="81"/>
       <c r="E7" s="80"/>
       <c r="F7" s="64"/>
@@ -9778,139 +9901,139 @@
     <mergeCell ref="B6:E6"/>
   </mergeCells>
   <conditionalFormatting sqref="D4:D5 M2:R6 L7:R7">
-    <cfRule type="cellIs" dxfId="46" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="46" operator="equal">
       <formula>$U$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="47" operator="equal">
       <formula>$U$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7:J7">
-    <cfRule type="cellIs" dxfId="44" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="44" operator="equal">
       <formula>$U$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="45" operator="equal">
       <formula>$U$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:D5 M2:R6">
-    <cfRule type="cellIs" dxfId="42" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="43" operator="equal">
       <formula>$U$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="cellIs" dxfId="41" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="41" operator="equal">
       <formula>$U$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="42" operator="equal">
       <formula>$U$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="cellIs" dxfId="39" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="40" operator="equal">
       <formula>$U$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E5 D7:E7">
-    <cfRule type="cellIs" dxfId="38" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="38" operator="equal">
       <formula>$U$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="39" operator="equal">
       <formula>$U$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:L5">
-    <cfRule type="cellIs" dxfId="36" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="31" operator="equal">
       <formula>$V$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="32" operator="equal">
       <formula>$V$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="33" operator="equal">
       <formula>$V$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="cellIs" dxfId="33" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="29" operator="equal">
       <formula>$U$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="30" operator="equal">
       <formula>$U$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W3">
-    <cfRule type="cellIs" dxfId="31" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="24" operator="equal">
       <formula>$X$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K7">
-    <cfRule type="cellIs" dxfId="30" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="20" operator="equal">
       <formula>$U$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="21" operator="equal">
       <formula>$U$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:L3">
-    <cfRule type="cellIs" dxfId="28" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="14" operator="equal">
       <formula>$U$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="15" operator="equal">
       <formula>$U$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="16" operator="equal">
       <formula>$U$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="35" operator="equal">
       <formula>$U$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6:L6">
-    <cfRule type="cellIs" dxfId="24" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="12" operator="equal">
       <formula>$W$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="13" operator="equal">
       <formula>$W$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S7">
-    <cfRule type="cellIs" dxfId="21" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="10" operator="equal">
       <formula>$U$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="11" operator="equal">
       <formula>$U$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S4:S5">
-    <cfRule type="cellIs" dxfId="17" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="6" operator="equal">
       <formula>$V$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="7" operator="equal">
       <formula>$V$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="8" operator="equal">
       <formula>$V$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S2:S3">
-    <cfRule type="cellIs" dxfId="11" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="3" operator="equal">
       <formula>$U$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="4" operator="equal">
       <formula>$U$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="5" operator="equal">
       <formula>$U$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="9" operator="equal">
       <formula>$U$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S6">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="1" operator="equal">
       <formula>$W$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="2" operator="equal">
       <formula>$W$2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9931,11 +10054,529 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:W7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="11.42578125" style="89"/>
+    <col min="3" max="3" width="21.85546875" style="89" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" style="89"/>
+    <col min="5" max="5" width="17.28515625" style="89" customWidth="1"/>
+    <col min="6" max="11" width="12.42578125" style="89" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="12.42578125" style="89" customWidth="1"/>
+    <col min="13" max="18" width="11.42578125" style="89" customWidth="1"/>
+    <col min="19" max="19" width="12.42578125" style="89" customWidth="1"/>
+    <col min="20" max="20" width="25.7109375" style="89" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.28515625" style="89" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="89" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="7.140625" style="89" hidden="1" customWidth="1"/>
+    <col min="24" max="16384" width="11.42578125" style="89"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="62" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="63" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="52" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="90" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" s="90" t="s">
+        <v>87</v>
+      </c>
+      <c r="F1" s="90" t="s">
+        <v>86</v>
+      </c>
+      <c r="G1" s="91" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" s="91" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1" s="91" t="s">
+        <v>34</v>
+      </c>
+      <c r="J1" s="91" t="s">
+        <v>98</v>
+      </c>
+      <c r="K1" s="91" t="s">
+        <v>96</v>
+      </c>
+      <c r="L1" s="91" t="s">
+        <v>168</v>
+      </c>
+      <c r="M1" s="91" t="s">
+        <v>35</v>
+      </c>
+      <c r="N1" s="91" t="s">
+        <v>36</v>
+      </c>
+      <c r="O1" s="91" t="s">
+        <v>37</v>
+      </c>
+      <c r="P1" s="91" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q1" s="90" t="s">
+        <v>39</v>
+      </c>
+      <c r="R1" s="90" t="s">
+        <v>97</v>
+      </c>
+      <c r="S1" s="91" t="s">
+        <v>169</v>
+      </c>
+      <c r="T1" s="87" t="s">
+        <v>102</v>
+      </c>
+      <c r="U1" s="87" t="s">
+        <v>120</v>
+      </c>
+      <c r="V1" s="87" t="s">
+        <v>119</v>
+      </c>
+      <c r="W1" s="87" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" ht="60" x14ac:dyDescent="0.25">
+      <c r="A2" s="154" t="s">
+        <v>177</v>
+      </c>
+      <c r="B2" s="170" t="s">
+        <v>178</v>
+      </c>
+      <c r="C2" s="57" t="s">
+        <v>179</v>
+      </c>
+      <c r="D2" s="76"/>
+      <c r="E2" s="77" t="s">
+        <v>92</v>
+      </c>
+      <c r="F2" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="H2" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="I2" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="J2" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="K2" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="L2" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="M2" s="53"/>
+      <c r="N2" s="53"/>
+      <c r="O2" s="53"/>
+      <c r="P2" s="53"/>
+      <c r="Q2" s="60"/>
+      <c r="R2" s="25"/>
+      <c r="S2" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="T2" s="95" t="s">
+        <v>131</v>
+      </c>
+      <c r="U2" s="102" t="s">
+        <v>44</v>
+      </c>
+      <c r="V2" s="101" t="s">
+        <v>44</v>
+      </c>
+      <c r="W2" s="103" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="155"/>
+      <c r="B3" s="171"/>
+      <c r="C3" s="153" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" s="25"/>
+      <c r="E3" s="78" t="s">
+        <v>91</v>
+      </c>
+      <c r="F3" s="129" t="s">
+        <v>126</v>
+      </c>
+      <c r="G3" s="129" t="s">
+        <v>126</v>
+      </c>
+      <c r="H3" s="129" t="s">
+        <v>126</v>
+      </c>
+      <c r="I3" s="129" t="s">
+        <v>126</v>
+      </c>
+      <c r="J3" s="129" t="s">
+        <v>126</v>
+      </c>
+      <c r="K3" s="129" t="s">
+        <v>126</v>
+      </c>
+      <c r="L3" s="129" t="s">
+        <v>126</v>
+      </c>
+      <c r="M3" s="54"/>
+      <c r="N3" s="54"/>
+      <c r="O3" s="54"/>
+      <c r="P3" s="54"/>
+      <c r="Q3" s="61"/>
+      <c r="R3" s="25"/>
+      <c r="S3" s="129" t="s">
+        <v>126</v>
+      </c>
+      <c r="U3" s="103" t="s">
+        <v>46</v>
+      </c>
+      <c r="V3" s="102" t="s">
+        <v>46</v>
+      </c>
+      <c r="W3" s="102" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="155"/>
+      <c r="B4" s="171"/>
+      <c r="C4" s="152"/>
+      <c r="D4" s="74" t="s">
+        <v>65</v>
+      </c>
+      <c r="E4" s="78"/>
+      <c r="F4" s="61" t="s">
+        <v>46</v>
+      </c>
+      <c r="G4" s="61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" s="61" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" s="61" t="s">
+        <v>46</v>
+      </c>
+      <c r="J4" s="61" t="s">
+        <v>46</v>
+      </c>
+      <c r="K4" s="61" t="s">
+        <v>46</v>
+      </c>
+      <c r="L4" s="61" t="s">
+        <v>46</v>
+      </c>
+      <c r="M4" s="54"/>
+      <c r="N4" s="54"/>
+      <c r="O4" s="54"/>
+      <c r="P4" s="54"/>
+      <c r="Q4" s="61"/>
+      <c r="R4" s="25"/>
+      <c r="S4" s="61" t="s">
+        <v>46</v>
+      </c>
+      <c r="U4" s="101" t="s">
+        <v>71</v>
+      </c>
+      <c r="V4" s="103" t="s">
+        <v>124</v>
+      </c>
+      <c r="W4" s="95"/>
+    </row>
+    <row r="5" spans="1:23" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="155"/>
+      <c r="B5" s="171"/>
+      <c r="C5" s="152" t="str">
+        <f>'Detalles plan de riesgo'!H5</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="D5" s="74" t="s">
+        <v>64</v>
+      </c>
+      <c r="E5" s="78"/>
+      <c r="F5" s="61" t="s">
+        <v>46</v>
+      </c>
+      <c r="G5" s="61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" s="61" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" s="61" t="s">
+        <v>46</v>
+      </c>
+      <c r="J5" s="61" t="s">
+        <v>46</v>
+      </c>
+      <c r="K5" s="61" t="s">
+        <v>46</v>
+      </c>
+      <c r="L5" s="61" t="s">
+        <v>46</v>
+      </c>
+      <c r="M5" s="54"/>
+      <c r="N5" s="54"/>
+      <c r="O5" s="54"/>
+      <c r="P5" s="54"/>
+      <c r="Q5" s="61"/>
+      <c r="R5" s="25"/>
+      <c r="S5" s="61" t="s">
+        <v>46</v>
+      </c>
+      <c r="U5" s="103" t="s">
+        <v>126</v>
+      </c>
+      <c r="W5" s="95"/>
+    </row>
+    <row r="6" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="155"/>
+      <c r="B6" s="160" t="s">
+        <v>121</v>
+      </c>
+      <c r="C6" s="161"/>
+      <c r="D6" s="161"/>
+      <c r="E6" s="162"/>
+      <c r="F6" s="61" t="s">
+        <v>46</v>
+      </c>
+      <c r="G6" s="61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" s="61" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" s="61" t="s">
+        <v>46</v>
+      </c>
+      <c r="J6" s="61" t="s">
+        <v>46</v>
+      </c>
+      <c r="K6" s="61" t="s">
+        <v>46</v>
+      </c>
+      <c r="L6" s="61" t="s">
+        <v>46</v>
+      </c>
+      <c r="M6" s="54"/>
+      <c r="N6" s="54"/>
+      <c r="O6" s="54"/>
+      <c r="P6" s="54"/>
+      <c r="Q6" s="61"/>
+      <c r="R6" s="25"/>
+      <c r="S6" s="61" t="s">
+        <v>46</v>
+      </c>
+      <c r="W6" s="95"/>
+    </row>
+    <row r="7" spans="1:23" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="156"/>
+      <c r="B7" s="172" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="159"/>
+      <c r="D7" s="81"/>
+      <c r="E7" s="80"/>
+      <c r="F7" s="64"/>
+      <c r="G7" s="55"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="55"/>
+      <c r="J7" s="55"/>
+      <c r="K7" s="55"/>
+      <c r="L7" s="55"/>
+      <c r="M7" s="55"/>
+      <c r="N7" s="55"/>
+      <c r="O7" s="55"/>
+      <c r="P7" s="55"/>
+      <c r="Q7" s="64"/>
+      <c r="R7" s="88"/>
+      <c r="S7" s="55"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B7:C7"/>
+  </mergeCells>
+  <conditionalFormatting sqref="D4:D5 M2:R6 L7:R7">
+    <cfRule type="cellIs" dxfId="34" priority="34" operator="equal">
+      <formula>$U$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="33" priority="35" operator="equal">
+      <formula>$U$2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F7:J7">
+    <cfRule type="cellIs" dxfId="32" priority="32" operator="equal">
+      <formula>$U$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="31" priority="33" operator="equal">
+      <formula>$U$2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4:D5 M2:R6">
+    <cfRule type="cellIs" dxfId="30" priority="31" operator="equal">
+      <formula>$U$5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3">
+    <cfRule type="cellIs" dxfId="29" priority="29" operator="equal">
+      <formula>$U$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="28" priority="30" operator="equal">
+      <formula>$U$2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3">
+    <cfRule type="cellIs" dxfId="27" priority="28" operator="equal">
+      <formula>$U$5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E5 D7:E7">
+    <cfRule type="cellIs" dxfId="26" priority="26" operator="equal">
+      <formula>$U$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="25" priority="27" operator="equal">
+      <formula>$U$2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F4:L5">
+    <cfRule type="cellIs" dxfId="24" priority="22" operator="equal">
+      <formula>$V$2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="23" priority="23" operator="equal">
+      <formula>$V$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="24" operator="equal">
+      <formula>$V$4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2">
+    <cfRule type="cellIs" dxfId="21" priority="20" operator="equal">
+      <formula>$U$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="20" priority="21" operator="equal">
+      <formula>$U$2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W3">
+    <cfRule type="cellIs" dxfId="19" priority="19" operator="equal">
+      <formula>$X$3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K7">
+    <cfRule type="cellIs" dxfId="18" priority="17" operator="equal">
+      <formula>$U$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="17" priority="18" operator="equal">
+      <formula>$U$2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:L3">
+    <cfRule type="cellIs" dxfId="16" priority="14" operator="equal">
+      <formula>$U$4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="15" priority="15" operator="equal">
+      <formula>$U$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="16" operator="equal">
+      <formula>$U$2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="25" operator="equal">
+      <formula>$U$5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F6:L6">
+    <cfRule type="cellIs" dxfId="12" priority="12" operator="equal">
+      <formula>$W$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="13" operator="equal">
+      <formula>$W$2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S7">
+    <cfRule type="cellIs" dxfId="10" priority="10" operator="equal">
+      <formula>$U$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="11" operator="equal">
+      <formula>$U$2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S4:S5">
+    <cfRule type="cellIs" dxfId="8" priority="6" operator="equal">
+      <formula>$V$2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
+      <formula>$V$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
+      <formula>$V$4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S2:S3">
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
+      <formula>$U$4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
+      <formula>$U$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
+      <formula>$U$2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="9" operator="equal">
+      <formula>$U$5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S6">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>$W$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+      <formula>$W$2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F6:L6 S6">
+      <formula1>$W$2:$W$3</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:L5 S4:S5">
+      <formula1>$V$2:$V$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D5 F2:L3 M2:R6 S2:S3">
+      <formula1>$U$2:$U$5</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S44"/>
   <sheetViews>
-    <sheetView topLeftCell="F28" workbookViewId="0">
-      <selection activeCell="O32" sqref="O32"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28:B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9972,17 +10613,17 @@
         <v>4</v>
       </c>
       <c r="H1" s="49" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I1" s="134"/>
       <c r="J1" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="K1" s="42" t="s">
+        <v>42</v>
+      </c>
+      <c r="L1" s="42" t="s">
         <v>43</v>
-      </c>
-      <c r="K1" s="42" t="s">
-        <v>44</v>
-      </c>
-      <c r="L1" s="42" t="s">
-        <v>45</v>
       </c>
       <c r="M1" s="40" t="s">
         <v>5</v>
@@ -9998,35 +10639,35 @@
       </c>
     </row>
     <row r="2" spans="1:16" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="184" t="s">
+      <c r="A2" s="174" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="231" t="s">
-        <v>71</v>
+      <c r="B2" s="179" t="s">
+        <v>68</v>
       </c>
       <c r="C2" s="125"/>
-      <c r="D2" s="234" t="s">
-        <v>78</v>
-      </c>
-      <c r="E2" s="184" t="s">
+      <c r="D2" s="182" t="s">
+        <v>75</v>
+      </c>
+      <c r="E2" s="174" t="s">
         <v>9</v>
       </c>
       <c r="F2" s="109"/>
-      <c r="G2" s="184">
+      <c r="G2" s="174">
         <v>3</v>
       </c>
       <c r="H2" s="56" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I2" s="135"/>
       <c r="J2" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="L2" s="65" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>10</v>
@@ -10037,27 +10678,27 @@
       <c r="O2" s="2">
         <v>9</v>
       </c>
-      <c r="P2" s="184" t="s">
+      <c r="P2" s="174" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="185"/>
-      <c r="B3" s="232"/>
+      <c r="A3" s="175"/>
+      <c r="B3" s="180"/>
       <c r="C3" s="126"/>
-      <c r="D3" s="235"/>
-      <c r="E3" s="185"/>
+      <c r="D3" s="183"/>
+      <c r="E3" s="175"/>
       <c r="F3" s="110"/>
-      <c r="G3" s="185"/>
+      <c r="G3" s="175"/>
       <c r="H3" s="57" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="I3" s="57"/>
       <c r="J3" s="46" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="L3" s="57"/>
       <c r="M3" s="1" t="s">
@@ -10069,50 +10710,50 @@
       <c r="O3" s="2">
         <v>3</v>
       </c>
-      <c r="P3" s="185"/>
+      <c r="P3" s="175"/>
     </row>
     <row r="4" spans="1:16" s="89" customFormat="1" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="185"/>
-      <c r="B4" s="232"/>
+      <c r="A4" s="175"/>
+      <c r="B4" s="180"/>
       <c r="C4" s="126"/>
-      <c r="D4" s="235"/>
-      <c r="E4" s="185"/>
+      <c r="D4" s="183"/>
+      <c r="E4" s="175"/>
       <c r="F4" s="110"/>
-      <c r="G4" s="185"/>
+      <c r="G4" s="175"/>
       <c r="H4" s="57"/>
       <c r="I4" s="57"/>
       <c r="J4" s="99" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="K4" s="99"/>
       <c r="L4" s="57" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="M4" s="1"/>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
-      <c r="P4" s="185"/>
+      <c r="P4" s="175"/>
     </row>
     <row r="5" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="185"/>
-      <c r="B5" s="232"/>
+      <c r="A5" s="175"/>
+      <c r="B5" s="180"/>
       <c r="C5" s="126"/>
-      <c r="D5" s="235"/>
-      <c r="E5" s="185"/>
+      <c r="D5" s="183"/>
+      <c r="E5" s="175"/>
       <c r="F5" s="110"/>
-      <c r="G5" s="185"/>
+      <c r="G5" s="175"/>
       <c r="H5" s="9" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="I5" s="110"/>
       <c r="J5" s="47" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="K5" s="9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="L5" s="57" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="M5" s="1" t="s">
         <v>13</v>
@@ -10123,28 +10764,28 @@
       <c r="O5" s="2">
         <v>6</v>
       </c>
-      <c r="P5" s="185"/>
+      <c r="P5" s="175"/>
     </row>
     <row r="6" spans="1:16" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="185"/>
-      <c r="B6" s="232"/>
+      <c r="A6" s="175"/>
+      <c r="B6" s="180"/>
       <c r="C6" s="126"/>
-      <c r="D6" s="235"/>
-      <c r="E6" s="185"/>
+      <c r="D6" s="183"/>
+      <c r="E6" s="175"/>
       <c r="F6" s="110"/>
-      <c r="G6" s="185"/>
+      <c r="G6" s="175"/>
       <c r="H6" s="9" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="I6" s="110"/>
       <c r="J6" s="58" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="K6" s="9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="L6" s="66" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="M6" s="1" t="s">
         <v>14</v>
@@ -10155,28 +10796,28 @@
       <c r="O6" s="2">
         <v>9</v>
       </c>
-      <c r="P6" s="185"/>
+      <c r="P6" s="175"/>
     </row>
     <row r="7" spans="1:16" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="186"/>
-      <c r="B7" s="233"/>
+      <c r="A7" s="176"/>
+      <c r="B7" s="181"/>
       <c r="C7" s="127"/>
-      <c r="D7" s="236"/>
-      <c r="E7" s="186"/>
+      <c r="D7" s="184"/>
+      <c r="E7" s="176"/>
       <c r="F7" s="111"/>
-      <c r="G7" s="186"/>
+      <c r="G7" s="176"/>
       <c r="H7" s="10" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="I7" s="111"/>
       <c r="J7" s="48" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="K7" s="10" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="L7" s="67" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="M7" s="3" t="s">
         <v>15</v>
@@ -10185,61 +10826,61 @@
       <c r="O7" s="5">
         <v>27</v>
       </c>
-      <c r="P7" s="186"/>
+      <c r="P7" s="176"/>
     </row>
     <row r="8" spans="1:16" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="22" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C8" s="21"/>
       <c r="D8" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" s="187" t="s">
-        <v>70</v>
-      </c>
-      <c r="F8" s="188"/>
-      <c r="G8" s="188"/>
-      <c r="H8" s="188"/>
-      <c r="I8" s="188"/>
-      <c r="J8" s="188"/>
-      <c r="K8" s="188"/>
-      <c r="L8" s="188"/>
+        <v>28</v>
+      </c>
+      <c r="E8" s="177" t="s">
+        <v>67</v>
+      </c>
+      <c r="F8" s="178"/>
+      <c r="G8" s="178"/>
+      <c r="H8" s="178"/>
+      <c r="I8" s="178"/>
+      <c r="J8" s="178"/>
+      <c r="K8" s="178"/>
+      <c r="L8" s="178"/>
       <c r="M8" s="50"/>
       <c r="N8" s="50"/>
       <c r="O8" s="50"/>
       <c r="P8" s="51"/>
     </row>
     <row r="9" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="184" t="s">
+      <c r="A9" s="174" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="231" t="s">
-        <v>49</v>
+      <c r="B9" s="179" t="s">
+        <v>47</v>
       </c>
       <c r="C9" s="125"/>
-      <c r="D9" s="234" t="s">
-        <v>80</v>
-      </c>
-      <c r="E9" s="184" t="s">
+      <c r="D9" s="182" t="s">
+        <v>77</v>
+      </c>
+      <c r="E9" s="174" t="s">
         <v>9</v>
       </c>
       <c r="F9" s="109"/>
-      <c r="G9" s="184">
+      <c r="G9" s="174">
         <v>2</v>
       </c>
       <c r="H9" s="57" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="I9" s="57"/>
       <c r="J9" s="57" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="K9" s="8" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="L9" s="8"/>
       <c r="M9" s="1" t="s">
@@ -10251,27 +10892,27 @@
       <c r="O9" s="2">
         <v>3</v>
       </c>
-      <c r="P9" s="184" t="s">
+      <c r="P9" s="174" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="185"/>
-      <c r="B10" s="232"/>
+      <c r="A10" s="175"/>
+      <c r="B10" s="180"/>
       <c r="C10" s="126"/>
-      <c r="D10" s="235"/>
-      <c r="E10" s="185"/>
+      <c r="D10" s="183"/>
+      <c r="E10" s="175"/>
       <c r="F10" s="110"/>
-      <c r="G10" s="185"/>
+      <c r="G10" s="175"/>
       <c r="H10" s="47" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="I10" s="110"/>
       <c r="J10" s="58" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="K10" s="9" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="L10" s="9"/>
       <c r="M10" s="1" t="s">
@@ -10283,25 +10924,25 @@
       <c r="O10" s="2">
         <v>2</v>
       </c>
-      <c r="P10" s="185"/>
+      <c r="P10" s="175"/>
     </row>
     <row r="11" spans="1:16" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="185"/>
-      <c r="B11" s="232"/>
+      <c r="A11" s="175"/>
+      <c r="B11" s="180"/>
       <c r="C11" s="126"/>
-      <c r="D11" s="235"/>
-      <c r="E11" s="185"/>
+      <c r="D11" s="183"/>
+      <c r="E11" s="175"/>
       <c r="F11" s="110"/>
-      <c r="G11" s="185"/>
+      <c r="G11" s="175"/>
       <c r="H11" s="47" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="I11" s="110"/>
       <c r="J11" s="58" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="K11" s="9" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="L11" s="9"/>
       <c r="M11" s="1" t="s">
@@ -10313,28 +10954,28 @@
       <c r="O11" s="2">
         <v>3</v>
       </c>
-      <c r="P11" s="185"/>
+      <c r="P11" s="175"/>
     </row>
     <row r="12" spans="1:16" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="185"/>
-      <c r="B12" s="232"/>
+      <c r="A12" s="175"/>
+      <c r="B12" s="180"/>
       <c r="C12" s="126"/>
-      <c r="D12" s="235"/>
-      <c r="E12" s="185"/>
+      <c r="D12" s="183"/>
+      <c r="E12" s="175"/>
       <c r="F12" s="110"/>
-      <c r="G12" s="185"/>
+      <c r="G12" s="175"/>
       <c r="H12" s="48" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="I12" s="111"/>
       <c r="J12" s="48" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="K12" s="9" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="L12" s="9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M12" s="1" t="s">
         <v>14</v>
@@ -10345,46 +10986,46 @@
       <c r="O12" s="2">
         <v>3</v>
       </c>
-      <c r="P12" s="185"/>
+      <c r="P12" s="175"/>
     </row>
     <row r="13" spans="1:16" s="89" customFormat="1" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="185"/>
-      <c r="B13" s="232"/>
+      <c r="A13" s="175"/>
+      <c r="B13" s="180"/>
       <c r="C13" s="126"/>
-      <c r="D13" s="235"/>
-      <c r="E13" s="185"/>
+      <c r="D13" s="183"/>
+      <c r="E13" s="175"/>
       <c r="F13" s="110"/>
-      <c r="G13" s="185"/>
+      <c r="G13" s="175"/>
       <c r="H13" s="96"/>
       <c r="I13" s="110"/>
       <c r="J13" s="97" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="K13" s="96" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="L13" s="96" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="M13" s="1"/>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
-      <c r="P13" s="185"/>
+      <c r="P13" s="175"/>
     </row>
     <row r="14" spans="1:16" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="186"/>
-      <c r="B14" s="233"/>
+      <c r="A14" s="176"/>
+      <c r="B14" s="181"/>
       <c r="C14" s="127"/>
-      <c r="D14" s="236"/>
-      <c r="E14" s="186"/>
+      <c r="D14" s="184"/>
+      <c r="E14" s="176"/>
       <c r="F14" s="111"/>
-      <c r="G14" s="186"/>
+      <c r="G14" s="176"/>
       <c r="H14" s="57" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="I14" s="57"/>
       <c r="J14" s="57" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="K14" s="10"/>
       <c r="L14" s="10"/>
@@ -10395,61 +11036,61 @@
       <c r="O14" s="5">
         <v>11</v>
       </c>
-      <c r="P14" s="186"/>
+      <c r="P14" s="176"/>
     </row>
     <row r="15" spans="1:16" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="22" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C15" s="21"/>
       <c r="D15" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="E15" s="187" t="s">
-        <v>85</v>
-      </c>
-      <c r="F15" s="188"/>
-      <c r="G15" s="188"/>
-      <c r="H15" s="188"/>
-      <c r="I15" s="188"/>
-      <c r="J15" s="188"/>
-      <c r="K15" s="188"/>
-      <c r="L15" s="188"/>
+        <v>28</v>
+      </c>
+      <c r="E15" s="177" t="s">
+        <v>82</v>
+      </c>
+      <c r="F15" s="178"/>
+      <c r="G15" s="178"/>
+      <c r="H15" s="178"/>
+      <c r="I15" s="178"/>
+      <c r="J15" s="178"/>
+      <c r="K15" s="178"/>
+      <c r="L15" s="178"/>
       <c r="M15" s="50"/>
       <c r="N15" s="50"/>
       <c r="O15" s="50"/>
       <c r="P15" s="51"/>
     </row>
     <row r="16" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="219" t="s">
+      <c r="A16" s="194" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="222" t="s">
-        <v>20</v>
+      <c r="B16" s="197" t="s">
+        <v>175</v>
       </c>
       <c r="C16" s="121"/>
-      <c r="D16" s="225" t="s">
-        <v>21</v>
-      </c>
-      <c r="E16" s="198" t="s">
+      <c r="D16" s="200" t="s">
+        <v>173</v>
+      </c>
+      <c r="E16" s="227" t="s">
         <v>9</v>
       </c>
       <c r="F16" s="115"/>
-      <c r="G16" s="201">
+      <c r="G16" s="230">
         <v>1</v>
       </c>
       <c r="H16" s="57" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="I16" s="57"/>
       <c r="J16" s="57" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="K16" s="24" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="L16" s="24"/>
       <c r="M16" s="19" t="s">
@@ -10462,27 +11103,27 @@
         <f>N16*G16</f>
         <v>1</v>
       </c>
-      <c r="P16" s="204" t="s">
+      <c r="P16" s="233" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:19" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="220"/>
-      <c r="B17" s="223"/>
+      <c r="A17" s="195"/>
+      <c r="B17" s="198"/>
       <c r="C17" s="122"/>
-      <c r="D17" s="226"/>
-      <c r="E17" s="199"/>
+      <c r="D17" s="201"/>
+      <c r="E17" s="228"/>
       <c r="F17" s="116"/>
-      <c r="G17" s="202"/>
+      <c r="G17" s="231"/>
       <c r="H17" s="47" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="I17" s="110"/>
       <c r="J17" s="58" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="K17" s="17" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="L17" s="17"/>
       <c r="M17" s="12" t="s">
@@ -10495,25 +11136,25 @@
         <f>N17*G16</f>
         <v>0</v>
       </c>
-      <c r="P17" s="205"/>
+      <c r="P17" s="234"/>
     </row>
     <row r="18" spans="1:19" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="220"/>
-      <c r="B18" s="223"/>
+      <c r="A18" s="195"/>
+      <c r="B18" s="198"/>
       <c r="C18" s="122"/>
-      <c r="D18" s="226"/>
-      <c r="E18" s="199"/>
+      <c r="D18" s="201"/>
+      <c r="E18" s="228"/>
       <c r="F18" s="116"/>
-      <c r="G18" s="202"/>
+      <c r="G18" s="231"/>
       <c r="H18" s="47" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="I18" s="110"/>
       <c r="J18" s="47" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="K18" s="86" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="M18" s="12" t="s">
         <v>13</v>
@@ -10525,18 +11166,18 @@
         <f>N18*G16</f>
         <v>2</v>
       </c>
-      <c r="P18" s="205"/>
+      <c r="P18" s="234"/>
     </row>
     <row r="19" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="220"/>
-      <c r="B19" s="223"/>
+      <c r="A19" s="195"/>
+      <c r="B19" s="198"/>
       <c r="C19" s="122"/>
-      <c r="D19" s="226"/>
-      <c r="E19" s="199"/>
+      <c r="D19" s="201"/>
+      <c r="E19" s="228"/>
       <c r="F19" s="116"/>
-      <c r="G19" s="202"/>
+      <c r="G19" s="231"/>
       <c r="H19" s="48" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="I19" s="111"/>
       <c r="J19" s="59"/>
@@ -10552,22 +11193,22 @@
         <f>N19*G16</f>
         <v>3</v>
       </c>
-      <c r="P19" s="205"/>
+      <c r="P19" s="234"/>
     </row>
     <row r="20" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="221"/>
-      <c r="B20" s="224"/>
+      <c r="A20" s="196"/>
+      <c r="B20" s="199"/>
       <c r="C20" s="123"/>
-      <c r="D20" s="227"/>
-      <c r="E20" s="200"/>
+      <c r="D20" s="202"/>
+      <c r="E20" s="229"/>
       <c r="F20" s="117"/>
-      <c r="G20" s="203"/>
+      <c r="G20" s="232"/>
       <c r="H20" s="57" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="I20" s="57"/>
       <c r="J20" s="57" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="K20" s="18"/>
       <c r="L20" s="18"/>
@@ -10579,58 +11220,58 @@
         <f>SUM(O16:O19)</f>
         <v>6</v>
       </c>
-      <c r="P20" s="206"/>
+      <c r="P20" s="235"/>
     </row>
     <row r="21" spans="1:19" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="22" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B21" s="21" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C21" s="21"/>
       <c r="D21" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="E21" s="187" t="s">
-        <v>84</v>
-      </c>
-      <c r="F21" s="188"/>
-      <c r="G21" s="188"/>
-      <c r="H21" s="188"/>
-      <c r="I21" s="188"/>
-      <c r="J21" s="188"/>
-      <c r="K21" s="188"/>
-      <c r="L21" s="188"/>
+        <v>28</v>
+      </c>
+      <c r="E21" s="177" t="s">
+        <v>81</v>
+      </c>
+      <c r="F21" s="178"/>
+      <c r="G21" s="178"/>
+      <c r="H21" s="178"/>
+      <c r="I21" s="178"/>
+      <c r="J21" s="178"/>
+      <c r="K21" s="178"/>
+      <c r="L21" s="178"/>
       <c r="M21" s="50"/>
       <c r="N21" s="50"/>
       <c r="O21" s="50"/>
       <c r="P21" s="51"/>
     </row>
     <row r="22" spans="1:19" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="228" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="230" t="s">
-        <v>50</v>
+      <c r="A22" s="203" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="205" t="s">
+        <v>176</v>
       </c>
       <c r="C22" s="124"/>
-      <c r="D22" s="173" t="s">
-        <v>26</v>
-      </c>
-      <c r="E22" s="172" t="s">
-        <v>22</v>
+      <c r="D22" s="206" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22" s="207" t="s">
+        <v>20</v>
       </c>
       <c r="F22" s="106"/>
-      <c r="G22" s="175">
+      <c r="G22" s="209">
         <v>3</v>
       </c>
       <c r="H22" s="57" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="I22" s="57"/>
       <c r="J22" s="57" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="K22" s="11"/>
       <c r="L22" s="11"/>
@@ -10643,24 +11284,24 @@
       <c r="O22" s="5">
         <v>6</v>
       </c>
-      <c r="P22" s="195" t="s">
+      <c r="P22" s="224" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:19" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="229"/>
-      <c r="B23" s="230"/>
+      <c r="A23" s="204"/>
+      <c r="B23" s="205"/>
       <c r="C23" s="124"/>
-      <c r="D23" s="173"/>
-      <c r="E23" s="173"/>
+      <c r="D23" s="206"/>
+      <c r="E23" s="206"/>
       <c r="F23" s="107"/>
-      <c r="G23" s="176"/>
+      <c r="G23" s="210"/>
       <c r="H23" s="47" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="I23" s="110"/>
       <c r="J23" s="58" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="K23" s="11"/>
       <c r="L23" s="11"/>
@@ -10673,22 +11314,22 @@
       <c r="O23" s="5">
         <v>6</v>
       </c>
-      <c r="P23" s="196"/>
+      <c r="P23" s="225"/>
     </row>
     <row r="24" spans="1:19" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="229"/>
-      <c r="B24" s="230"/>
+      <c r="A24" s="204"/>
+      <c r="B24" s="205"/>
       <c r="C24" s="124"/>
-      <c r="D24" s="173"/>
-      <c r="E24" s="173"/>
+      <c r="D24" s="206"/>
+      <c r="E24" s="206"/>
       <c r="F24" s="107"/>
-      <c r="G24" s="176"/>
+      <c r="G24" s="210"/>
       <c r="H24" s="47" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="I24" s="110"/>
       <c r="J24" s="58" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="K24" s="11"/>
       <c r="L24" s="11"/>
@@ -10701,26 +11342,26 @@
       <c r="O24" s="5">
         <v>6</v>
       </c>
-      <c r="P24" s="196"/>
+      <c r="P24" s="225"/>
     </row>
     <row r="25" spans="1:19" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="229"/>
-      <c r="B25" s="230"/>
+      <c r="A25" s="204"/>
+      <c r="B25" s="205"/>
       <c r="C25" s="124"/>
-      <c r="D25" s="173"/>
-      <c r="E25" s="173"/>
+      <c r="D25" s="206"/>
+      <c r="E25" s="206"/>
       <c r="F25" s="107"/>
-      <c r="G25" s="176"/>
+      <c r="G25" s="210"/>
       <c r="H25" s="48" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="I25" s="111"/>
       <c r="J25" s="59" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="K25" s="69"/>
       <c r="L25" s="69" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="M25" s="6" t="s">
         <v>14</v>
@@ -10731,26 +11372,26 @@
       <c r="O25" s="5">
         <v>6</v>
       </c>
-      <c r="P25" s="196"/>
+      <c r="P25" s="225"/>
     </row>
     <row r="26" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="229"/>
-      <c r="B26" s="230"/>
+      <c r="A26" s="204"/>
+      <c r="B26" s="205"/>
       <c r="C26" s="124"/>
-      <c r="D26" s="173"/>
-      <c r="E26" s="174"/>
+      <c r="D26" s="206"/>
+      <c r="E26" s="208"/>
       <c r="F26" s="108"/>
-      <c r="G26" s="177"/>
+      <c r="G26" s="211"/>
       <c r="H26" s="57" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="I26" s="57"/>
       <c r="J26" s="57" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="K26" s="69"/>
       <c r="L26" s="69" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="M26" s="3" t="s">
         <v>15</v>
@@ -10759,61 +11400,61 @@
       <c r="O26" s="5">
         <v>24</v>
       </c>
-      <c r="P26" s="197"/>
+      <c r="P26" s="226"/>
     </row>
     <row r="27" spans="1:19" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="22" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B27" s="21" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C27" s="21"/>
       <c r="D27" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="E27" s="236" t="s">
         <v>30</v>
       </c>
-      <c r="E27" s="207" t="s">
-        <v>32</v>
-      </c>
-      <c r="F27" s="208"/>
-      <c r="G27" s="208"/>
-      <c r="H27" s="208"/>
-      <c r="I27" s="208"/>
-      <c r="J27" s="208"/>
-      <c r="K27" s="208"/>
-      <c r="L27" s="208"/>
-      <c r="M27" s="208"/>
-      <c r="N27" s="208"/>
-      <c r="O27" s="208"/>
-      <c r="P27" s="209"/>
+      <c r="F27" s="237"/>
+      <c r="G27" s="237"/>
+      <c r="H27" s="237"/>
+      <c r="I27" s="237"/>
+      <c r="J27" s="237"/>
+      <c r="K27" s="237"/>
+      <c r="L27" s="237"/>
+      <c r="M27" s="237"/>
+      <c r="N27" s="237"/>
+      <c r="O27" s="237"/>
+      <c r="P27" s="238"/>
       <c r="Q27" s="25"/>
       <c r="R27" s="25"/>
       <c r="S27" s="25"/>
     </row>
     <row r="28" spans="1:19" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="210" t="s">
-        <v>27</v>
-      </c>
-      <c r="B28" s="213" t="s">
-        <v>33</v>
+      <c r="A28" s="185" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" s="188" t="s">
+        <v>31</v>
       </c>
       <c r="C28" s="118"/>
-      <c r="D28" s="216" t="s">
-        <v>88</v>
-      </c>
-      <c r="E28" s="189" t="s">
-        <v>22</v>
+      <c r="D28" s="191" t="s">
+        <v>85</v>
+      </c>
+      <c r="E28" s="218" t="s">
+        <v>20</v>
       </c>
       <c r="F28" s="112"/>
-      <c r="G28" s="192">
+      <c r="G28" s="221">
         <v>3</v>
       </c>
       <c r="H28" s="57" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="I28" s="57"/>
       <c r="J28" s="57" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="K28" s="43"/>
       <c r="L28" s="43"/>
@@ -10827,7 +11468,7 @@
         <f>G28*N28</f>
         <v>9</v>
       </c>
-      <c r="P28" s="178" t="s">
+      <c r="P28" s="212" t="s">
         <v>17</v>
       </c>
       <c r="Q28" s="25"/>
@@ -10835,19 +11476,19 @@
       <c r="S28" s="25"/>
     </row>
     <row r="29" spans="1:19" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="211"/>
-      <c r="B29" s="214"/>
+      <c r="A29" s="186"/>
+      <c r="B29" s="189"/>
       <c r="C29" s="119"/>
-      <c r="D29" s="217"/>
-      <c r="E29" s="190"/>
+      <c r="D29" s="192"/>
+      <c r="E29" s="219"/>
       <c r="F29" s="113"/>
-      <c r="G29" s="193"/>
+      <c r="G29" s="222"/>
       <c r="H29" s="47" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I29" s="110"/>
       <c r="J29" s="58" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="K29" s="44"/>
       <c r="L29" s="44"/>
@@ -10861,26 +11502,26 @@
         <f>G28*N29</f>
         <v>6</v>
       </c>
-      <c r="P29" s="179"/>
+      <c r="P29" s="213"/>
     </row>
     <row r="30" spans="1:19" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="211"/>
-      <c r="B30" s="214"/>
+      <c r="A30" s="186"/>
+      <c r="B30" s="189"/>
       <c r="C30" s="119"/>
-      <c r="D30" s="217"/>
-      <c r="E30" s="190"/>
+      <c r="D30" s="192"/>
+      <c r="E30" s="219"/>
       <c r="F30" s="113"/>
-      <c r="G30" s="193"/>
+      <c r="G30" s="222"/>
       <c r="H30" s="47" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="I30" s="110"/>
       <c r="J30" s="58" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="K30" s="44"/>
       <c r="L30" s="70" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="M30" s="32" t="s">
         <v>13</v>
@@ -10892,26 +11533,26 @@
         <f>G28*N30</f>
         <v>9</v>
       </c>
-      <c r="P30" s="179"/>
+      <c r="P30" s="213"/>
     </row>
     <row r="31" spans="1:19" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="211"/>
-      <c r="B31" s="214"/>
+      <c r="A31" s="186"/>
+      <c r="B31" s="189"/>
       <c r="C31" s="119"/>
-      <c r="D31" s="217"/>
-      <c r="E31" s="190"/>
+      <c r="D31" s="192"/>
+      <c r="E31" s="219"/>
       <c r="F31" s="113"/>
-      <c r="G31" s="193"/>
+      <c r="G31" s="222"/>
       <c r="H31" s="48" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="I31" s="111"/>
       <c r="J31" s="59" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="K31" s="44"/>
       <c r="L31" s="70" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="M31" s="29" t="s">
         <v>14</v>
@@ -10923,22 +11564,22 @@
         <f>G28*N31</f>
         <v>9</v>
       </c>
-      <c r="P31" s="179"/>
+      <c r="P31" s="213"/>
     </row>
     <row r="32" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="212"/>
-      <c r="B32" s="215"/>
+      <c r="A32" s="187"/>
+      <c r="B32" s="190"/>
       <c r="C32" s="120"/>
-      <c r="D32" s="218"/>
-      <c r="E32" s="191"/>
+      <c r="D32" s="193"/>
+      <c r="E32" s="220"/>
       <c r="F32" s="114"/>
-      <c r="G32" s="194"/>
+      <c r="G32" s="223"/>
       <c r="H32" s="57" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="I32" s="57"/>
       <c r="J32" s="57" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="K32" s="45"/>
       <c r="L32" s="45"/>
@@ -10950,33 +11591,33 @@
         <f>SUM(O28:O31)</f>
         <v>33</v>
       </c>
-      <c r="P32" s="180"/>
+      <c r="P32" s="214"/>
     </row>
     <row r="33" spans="1:16" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="22" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B33" s="21" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C33" s="136"/>
       <c r="D33" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="E33" s="181" t="s">
-        <v>87</v>
-      </c>
-      <c r="F33" s="182"/>
-      <c r="G33" s="182"/>
-      <c r="H33" s="182"/>
-      <c r="I33" s="182"/>
-      <c r="J33" s="182"/>
-      <c r="K33" s="182"/>
-      <c r="L33" s="182"/>
-      <c r="M33" s="182"/>
-      <c r="N33" s="182"/>
-      <c r="O33" s="182"/>
-      <c r="P33" s="183"/>
+        <v>28</v>
+      </c>
+      <c r="E33" s="215" t="s">
+        <v>84</v>
+      </c>
+      <c r="F33" s="216"/>
+      <c r="G33" s="216"/>
+      <c r="H33" s="216"/>
+      <c r="I33" s="216"/>
+      <c r="J33" s="216"/>
+      <c r="K33" s="216"/>
+      <c r="L33" s="216"/>
+      <c r="M33" s="216"/>
+      <c r="N33" s="216"/>
+      <c r="O33" s="216"/>
+      <c r="P33" s="217"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C34" s="25"/>
@@ -11026,27 +11667,6 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="P2:P7"/>
-    <mergeCell ref="E8:L8"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="B2:B7"/>
-    <mergeCell ref="D2:D7"/>
-    <mergeCell ref="E2:E7"/>
-    <mergeCell ref="G2:G7"/>
-    <mergeCell ref="A9:A14"/>
-    <mergeCell ref="B9:B14"/>
-    <mergeCell ref="D9:D14"/>
-    <mergeCell ref="E9:E14"/>
-    <mergeCell ref="G9:G14"/>
-    <mergeCell ref="A28:A32"/>
-    <mergeCell ref="B28:B32"/>
-    <mergeCell ref="D28:D32"/>
-    <mergeCell ref="A16:A20"/>
-    <mergeCell ref="B16:B20"/>
-    <mergeCell ref="D16:D20"/>
-    <mergeCell ref="A22:A26"/>
-    <mergeCell ref="B22:B26"/>
-    <mergeCell ref="D22:D26"/>
     <mergeCell ref="E22:E26"/>
     <mergeCell ref="G22:G26"/>
     <mergeCell ref="P28:P32"/>
@@ -11061,13 +11681,34 @@
     <mergeCell ref="G16:G20"/>
     <mergeCell ref="P16:P20"/>
     <mergeCell ref="E27:P27"/>
+    <mergeCell ref="A28:A32"/>
+    <mergeCell ref="B28:B32"/>
+    <mergeCell ref="D28:D32"/>
+    <mergeCell ref="A16:A20"/>
+    <mergeCell ref="B16:B20"/>
+    <mergeCell ref="D16:D20"/>
+    <mergeCell ref="A22:A26"/>
+    <mergeCell ref="B22:B26"/>
+    <mergeCell ref="D22:D26"/>
+    <mergeCell ref="A9:A14"/>
+    <mergeCell ref="B9:B14"/>
+    <mergeCell ref="D9:D14"/>
+    <mergeCell ref="E9:E14"/>
+    <mergeCell ref="G9:G14"/>
+    <mergeCell ref="P2:P7"/>
+    <mergeCell ref="E8:L8"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="B2:B7"/>
+    <mergeCell ref="D2:D7"/>
+    <mergeCell ref="E2:E7"/>
+    <mergeCell ref="G2:G7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L12"/>
   <sheetViews>
@@ -11089,74 +11730,74 @@
   <sheetData>
     <row r="1" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B2" s="237" t="s">
-        <v>146</v>
-      </c>
-      <c r="C2" s="238"/>
+      <c r="B2" s="239" t="s">
+        <v>143</v>
+      </c>
+      <c r="C2" s="240"/>
       <c r="D2" s="137"/>
-      <c r="E2" s="237" t="s">
-        <v>147</v>
-      </c>
-      <c r="F2" s="238"/>
+      <c r="E2" s="239" t="s">
+        <v>144</v>
+      </c>
+      <c r="F2" s="240"/>
       <c r="G2" s="89"/>
-      <c r="H2" s="237" t="s">
-        <v>148</v>
-      </c>
-      <c r="I2" s="238"/>
-      <c r="K2" s="237" t="s">
-        <v>161</v>
-      </c>
-      <c r="L2" s="238"/>
+      <c r="H2" s="239" t="s">
+        <v>145</v>
+      </c>
+      <c r="I2" s="240"/>
+      <c r="K2" s="239" t="s">
+        <v>158</v>
+      </c>
+      <c r="L2" s="240"/>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B3" s="143" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C3" s="148">
         <v>4</v>
       </c>
       <c r="D3" s="25"/>
       <c r="E3" s="140" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F3" s="148">
         <v>0</v>
       </c>
       <c r="G3" s="89"/>
       <c r="H3" s="139" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="I3" s="148">
         <v>0</v>
       </c>
       <c r="K3" s="130"/>
       <c r="L3" s="151" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B4" s="144" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C4" s="148">
         <v>0</v>
       </c>
       <c r="D4" s="25"/>
       <c r="E4" s="140" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="F4" s="148">
         <v>0</v>
       </c>
       <c r="G4" s="89"/>
       <c r="H4" s="139" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="I4" s="148">
         <v>0</v>
       </c>
       <c r="K4" s="139" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="L4" s="148">
         <v>0</v>
@@ -11164,27 +11805,27 @@
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B5" s="145" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C5" s="148">
         <v>1</v>
       </c>
       <c r="D5" s="25"/>
       <c r="E5" s="141" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F5" s="148">
         <v>5</v>
       </c>
       <c r="G5" s="89"/>
       <c r="H5" s="140" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="I5" s="148">
         <v>0</v>
       </c>
       <c r="K5" s="139" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="L5" s="148">
         <v>0</v>
@@ -11192,27 +11833,27 @@
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B6" s="146" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C6" s="148">
         <v>0</v>
       </c>
       <c r="D6" s="25"/>
       <c r="E6" s="138" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F6" s="148">
         <v>0</v>
       </c>
       <c r="G6" s="89"/>
       <c r="H6" s="138" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="I6" s="148">
         <v>5</v>
       </c>
       <c r="K6" s="140" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="L6" s="148">
         <v>0</v>
@@ -11220,25 +11861,25 @@
     </row>
     <row r="7" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="147" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C7" s="149">
         <v>5</v>
       </c>
       <c r="D7" s="25"/>
       <c r="E7" s="131" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="F7" s="132"/>
       <c r="G7" s="89"/>
       <c r="H7" s="142" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="I7" s="150">
         <v>0</v>
       </c>
       <c r="K7" s="141" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="L7" s="148">
         <v>2</v>
@@ -11249,7 +11890,7 @@
       <c r="G8" s="89"/>
       <c r="I8" s="89"/>
       <c r="K8" s="141" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="L8" s="148">
         <v>3</v>
@@ -11259,7 +11900,7 @@
       <c r="D9" s="89"/>
       <c r="G9" s="89"/>
       <c r="K9" s="138" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="L9" s="148">
         <v>0</v>
@@ -11268,7 +11909,7 @@
     <row r="10" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G10" s="89"/>
       <c r="K10" s="131" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="L10" s="149">
         <v>5</v>
@@ -11291,7 +11932,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
@@ -11308,49 +11949,49 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="87" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B1" s="87" t="s">
+        <v>119</v>
+      </c>
+      <c r="C1" s="87" t="s">
         <v>122</v>
-      </c>
-      <c r="C1" s="87" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="102" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B2" s="101" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C2" s="103" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="103" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B3" s="102" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C3" s="102" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="101" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B4" s="103" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C4" s="95"/>
     </row>
     <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="103" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C5" s="95"/>
     </row>
@@ -11359,7 +12000,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C3">
-    <cfRule type="cellIs" dxfId="22" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="1" operator="equal">
       <formula>$W$3</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Seguimiento/RiesgosCiclo3.xlsx
+++ b/Seguimiento/RiesgosCiclo3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-630" yWindow="3810" windowWidth="19695" windowHeight="3690" activeTab="5"/>
+    <workbookView xWindow="-630" yWindow="3870" windowWidth="19695" windowHeight="3630" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="R3" sheetId="7" r:id="rId1"/>
@@ -4316,6 +4316,42 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4331,6 +4367,132 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
@@ -4348,168 +4510,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4525,13 +4525,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
@@ -4560,6 +4553,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
@@ -4764,13 +4771,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -10419,139 +10419,139 @@
     <mergeCell ref="B7:C7"/>
   </mergeCells>
   <conditionalFormatting sqref="D4:D5 M2:R6 L7:R7">
-    <cfRule type="cellIs" dxfId="34" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="34" operator="equal">
       <formula>$U$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="35" operator="equal">
       <formula>$U$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7:J7">
-    <cfRule type="cellIs" dxfId="32" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="32" operator="equal">
       <formula>$U$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="33" operator="equal">
       <formula>$U$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:D5 M2:R6">
-    <cfRule type="cellIs" dxfId="30" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="31" operator="equal">
       <formula>$U$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="cellIs" dxfId="29" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="29" operator="equal">
       <formula>$U$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="30" operator="equal">
       <formula>$U$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="cellIs" dxfId="27" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="28" operator="equal">
       <formula>$U$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E5 D7:E7">
-    <cfRule type="cellIs" dxfId="26" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="26" operator="equal">
       <formula>$U$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="27" operator="equal">
       <formula>$U$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:L5">
-    <cfRule type="cellIs" dxfId="24" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="22" operator="equal">
       <formula>$V$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="23" operator="equal">
       <formula>$V$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="24" operator="equal">
       <formula>$V$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="cellIs" dxfId="21" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="20" operator="equal">
       <formula>$U$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="21" operator="equal">
       <formula>$U$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W3">
-    <cfRule type="cellIs" dxfId="19" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="19" operator="equal">
       <formula>$X$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K7">
-    <cfRule type="cellIs" dxfId="18" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="17" operator="equal">
       <formula>$U$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="18" operator="equal">
       <formula>$U$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:L3">
-    <cfRule type="cellIs" dxfId="16" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="14" operator="equal">
       <formula>$U$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="15" operator="equal">
       <formula>$U$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="16" operator="equal">
       <formula>$U$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="25" operator="equal">
       <formula>$U$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6:L6">
-    <cfRule type="cellIs" dxfId="12" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="12" operator="equal">
       <formula>$W$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="13" operator="equal">
       <formula>$W$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S7">
-    <cfRule type="cellIs" dxfId="10" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="10" operator="equal">
       <formula>$U$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
       <formula>$U$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S4:S5">
-    <cfRule type="cellIs" dxfId="8" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="6" operator="equal">
       <formula>$V$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
       <formula>$V$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
       <formula>$V$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S2:S3">
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
       <formula>$U$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
       <formula>$U$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>$U$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="9" operator="equal">
       <formula>$U$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S6">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>$W$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>$W$2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10575,7 +10575,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S44"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B28" sqref="B28:B32"/>
     </sheetView>
   </sheetViews>
@@ -10639,21 +10639,21 @@
       </c>
     </row>
     <row r="2" spans="1:16" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="174" t="s">
+      <c r="A2" s="186" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="179" t="s">
+      <c r="B2" s="233" t="s">
         <v>68</v>
       </c>
       <c r="C2" s="125"/>
-      <c r="D2" s="182" t="s">
+      <c r="D2" s="236" t="s">
         <v>75</v>
       </c>
-      <c r="E2" s="174" t="s">
+      <c r="E2" s="186" t="s">
         <v>9</v>
       </c>
       <c r="F2" s="109"/>
-      <c r="G2" s="174">
+      <c r="G2" s="186">
         <v>3</v>
       </c>
       <c r="H2" s="56" t="s">
@@ -10678,18 +10678,18 @@
       <c r="O2" s="2">
         <v>9</v>
       </c>
-      <c r="P2" s="174" t="s">
+      <c r="P2" s="186" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="175"/>
-      <c r="B3" s="180"/>
+      <c r="A3" s="187"/>
+      <c r="B3" s="234"/>
       <c r="C3" s="126"/>
-      <c r="D3" s="183"/>
-      <c r="E3" s="175"/>
+      <c r="D3" s="237"/>
+      <c r="E3" s="187"/>
       <c r="F3" s="110"/>
-      <c r="G3" s="175"/>
+      <c r="G3" s="187"/>
       <c r="H3" s="57" t="s">
         <v>50</v>
       </c>
@@ -10710,16 +10710,16 @@
       <c r="O3" s="2">
         <v>3</v>
       </c>
-      <c r="P3" s="175"/>
+      <c r="P3" s="187"/>
     </row>
     <row r="4" spans="1:16" s="89" customFormat="1" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="175"/>
-      <c r="B4" s="180"/>
+      <c r="A4" s="187"/>
+      <c r="B4" s="234"/>
       <c r="C4" s="126"/>
-      <c r="D4" s="183"/>
-      <c r="E4" s="175"/>
+      <c r="D4" s="237"/>
+      <c r="E4" s="187"/>
       <c r="F4" s="110"/>
-      <c r="G4" s="175"/>
+      <c r="G4" s="187"/>
       <c r="H4" s="57"/>
       <c r="I4" s="57"/>
       <c r="J4" s="99" t="s">
@@ -10732,16 +10732,16 @@
       <c r="M4" s="1"/>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
-      <c r="P4" s="175"/>
+      <c r="P4" s="187"/>
     </row>
     <row r="5" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="175"/>
-      <c r="B5" s="180"/>
+      <c r="A5" s="187"/>
+      <c r="B5" s="234"/>
       <c r="C5" s="126"/>
-      <c r="D5" s="183"/>
-      <c r="E5" s="175"/>
+      <c r="D5" s="237"/>
+      <c r="E5" s="187"/>
       <c r="F5" s="110"/>
-      <c r="G5" s="175"/>
+      <c r="G5" s="187"/>
       <c r="H5" s="9" t="s">
         <v>48</v>
       </c>
@@ -10764,16 +10764,16 @@
       <c r="O5" s="2">
         <v>6</v>
       </c>
-      <c r="P5" s="175"/>
+      <c r="P5" s="187"/>
     </row>
     <row r="6" spans="1:16" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="175"/>
-      <c r="B6" s="180"/>
+      <c r="A6" s="187"/>
+      <c r="B6" s="234"/>
       <c r="C6" s="126"/>
-      <c r="D6" s="183"/>
-      <c r="E6" s="175"/>
+      <c r="D6" s="237"/>
+      <c r="E6" s="187"/>
       <c r="F6" s="110"/>
-      <c r="G6" s="175"/>
+      <c r="G6" s="187"/>
       <c r="H6" s="9" t="s">
         <v>48</v>
       </c>
@@ -10796,16 +10796,16 @@
       <c r="O6" s="2">
         <v>9</v>
       </c>
-      <c r="P6" s="175"/>
+      <c r="P6" s="187"/>
     </row>
     <row r="7" spans="1:16" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="176"/>
-      <c r="B7" s="181"/>
+      <c r="A7" s="188"/>
+      <c r="B7" s="235"/>
       <c r="C7" s="127"/>
-      <c r="D7" s="184"/>
-      <c r="E7" s="176"/>
+      <c r="D7" s="238"/>
+      <c r="E7" s="188"/>
       <c r="F7" s="111"/>
-      <c r="G7" s="176"/>
+      <c r="G7" s="188"/>
       <c r="H7" s="10" t="s">
         <v>48</v>
       </c>
@@ -10826,7 +10826,7 @@
       <c r="O7" s="5">
         <v>27</v>
       </c>
-      <c r="P7" s="176"/>
+      <c r="P7" s="188"/>
     </row>
     <row r="8" spans="1:16" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="22" t="s">
@@ -10839,37 +10839,37 @@
       <c r="D8" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="177" t="s">
+      <c r="E8" s="189" t="s">
         <v>67</v>
       </c>
-      <c r="F8" s="178"/>
-      <c r="G8" s="178"/>
-      <c r="H8" s="178"/>
-      <c r="I8" s="178"/>
-      <c r="J8" s="178"/>
-      <c r="K8" s="178"/>
-      <c r="L8" s="178"/>
+      <c r="F8" s="190"/>
+      <c r="G8" s="190"/>
+      <c r="H8" s="190"/>
+      <c r="I8" s="190"/>
+      <c r="J8" s="190"/>
+      <c r="K8" s="190"/>
+      <c r="L8" s="190"/>
       <c r="M8" s="50"/>
       <c r="N8" s="50"/>
       <c r="O8" s="50"/>
       <c r="P8" s="51"/>
     </row>
     <row r="9" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="174" t="s">
+      <c r="A9" s="186" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="179" t="s">
+      <c r="B9" s="233" t="s">
         <v>47</v>
       </c>
       <c r="C9" s="125"/>
-      <c r="D9" s="182" t="s">
+      <c r="D9" s="236" t="s">
         <v>77</v>
       </c>
-      <c r="E9" s="174" t="s">
+      <c r="E9" s="186" t="s">
         <v>9</v>
       </c>
       <c r="F9" s="109"/>
-      <c r="G9" s="174">
+      <c r="G9" s="186">
         <v>2</v>
       </c>
       <c r="H9" s="57" t="s">
@@ -10892,18 +10892,18 @@
       <c r="O9" s="2">
         <v>3</v>
       </c>
-      <c r="P9" s="174" t="s">
+      <c r="P9" s="186" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="175"/>
-      <c r="B10" s="180"/>
+      <c r="A10" s="187"/>
+      <c r="B10" s="234"/>
       <c r="C10" s="126"/>
-      <c r="D10" s="183"/>
-      <c r="E10" s="175"/>
+      <c r="D10" s="237"/>
+      <c r="E10" s="187"/>
       <c r="F10" s="110"/>
-      <c r="G10" s="175"/>
+      <c r="G10" s="187"/>
       <c r="H10" s="47" t="s">
         <v>54</v>
       </c>
@@ -10924,16 +10924,16 @@
       <c r="O10" s="2">
         <v>2</v>
       </c>
-      <c r="P10" s="175"/>
+      <c r="P10" s="187"/>
     </row>
     <row r="11" spans="1:16" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="175"/>
-      <c r="B11" s="180"/>
+      <c r="A11" s="187"/>
+      <c r="B11" s="234"/>
       <c r="C11" s="126"/>
-      <c r="D11" s="183"/>
-      <c r="E11" s="175"/>
+      <c r="D11" s="237"/>
+      <c r="E11" s="187"/>
       <c r="F11" s="110"/>
-      <c r="G11" s="175"/>
+      <c r="G11" s="187"/>
       <c r="H11" s="47" t="s">
         <v>78</v>
       </c>
@@ -10954,16 +10954,16 @@
       <c r="O11" s="2">
         <v>3</v>
       </c>
-      <c r="P11" s="175"/>
+      <c r="P11" s="187"/>
     </row>
     <row r="12" spans="1:16" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="175"/>
-      <c r="B12" s="180"/>
+      <c r="A12" s="187"/>
+      <c r="B12" s="234"/>
       <c r="C12" s="126"/>
-      <c r="D12" s="183"/>
-      <c r="E12" s="175"/>
+      <c r="D12" s="237"/>
+      <c r="E12" s="187"/>
       <c r="F12" s="110"/>
-      <c r="G12" s="175"/>
+      <c r="G12" s="187"/>
       <c r="H12" s="48" t="s">
         <v>48</v>
       </c>
@@ -10986,16 +10986,16 @@
       <c r="O12" s="2">
         <v>3</v>
       </c>
-      <c r="P12" s="175"/>
+      <c r="P12" s="187"/>
     </row>
     <row r="13" spans="1:16" s="89" customFormat="1" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="175"/>
-      <c r="B13" s="180"/>
+      <c r="A13" s="187"/>
+      <c r="B13" s="234"/>
       <c r="C13" s="126"/>
-      <c r="D13" s="183"/>
-      <c r="E13" s="175"/>
+      <c r="D13" s="237"/>
+      <c r="E13" s="187"/>
       <c r="F13" s="110"/>
-      <c r="G13" s="175"/>
+      <c r="G13" s="187"/>
       <c r="H13" s="96"/>
       <c r="I13" s="110"/>
       <c r="J13" s="97" t="s">
@@ -11010,16 +11010,16 @@
       <c r="M13" s="1"/>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
-      <c r="P13" s="175"/>
+      <c r="P13" s="187"/>
     </row>
     <row r="14" spans="1:16" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="176"/>
-      <c r="B14" s="181"/>
+      <c r="A14" s="188"/>
+      <c r="B14" s="235"/>
       <c r="C14" s="127"/>
-      <c r="D14" s="184"/>
-      <c r="E14" s="176"/>
+      <c r="D14" s="238"/>
+      <c r="E14" s="188"/>
       <c r="F14" s="111"/>
-      <c r="G14" s="176"/>
+      <c r="G14" s="188"/>
       <c r="H14" s="57" t="s">
         <v>48</v>
       </c>
@@ -11036,7 +11036,7 @@
       <c r="O14" s="5">
         <v>11</v>
       </c>
-      <c r="P14" s="176"/>
+      <c r="P14" s="188"/>
     </row>
     <row r="15" spans="1:16" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="22" t="s">
@@ -11049,37 +11049,37 @@
       <c r="D15" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="E15" s="177" t="s">
+      <c r="E15" s="189" t="s">
         <v>82</v>
       </c>
-      <c r="F15" s="178"/>
-      <c r="G15" s="178"/>
-      <c r="H15" s="178"/>
-      <c r="I15" s="178"/>
-      <c r="J15" s="178"/>
-      <c r="K15" s="178"/>
-      <c r="L15" s="178"/>
+      <c r="F15" s="190"/>
+      <c r="G15" s="190"/>
+      <c r="H15" s="190"/>
+      <c r="I15" s="190"/>
+      <c r="J15" s="190"/>
+      <c r="K15" s="190"/>
+      <c r="L15" s="190"/>
       <c r="M15" s="50"/>
       <c r="N15" s="50"/>
       <c r="O15" s="50"/>
       <c r="P15" s="51"/>
     </row>
     <row r="16" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="194" t="s">
+      <c r="A16" s="221" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="197" t="s">
+      <c r="B16" s="224" t="s">
         <v>175</v>
       </c>
       <c r="C16" s="121"/>
-      <c r="D16" s="200" t="s">
+      <c r="D16" s="227" t="s">
         <v>173</v>
       </c>
-      <c r="E16" s="227" t="s">
+      <c r="E16" s="200" t="s">
         <v>9</v>
       </c>
       <c r="F16" s="115"/>
-      <c r="G16" s="230">
+      <c r="G16" s="203">
         <v>1</v>
       </c>
       <c r="H16" s="57" t="s">
@@ -11103,18 +11103,18 @@
         <f>N16*G16</f>
         <v>1</v>
       </c>
-      <c r="P16" s="233" t="s">
+      <c r="P16" s="206" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:19" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="195"/>
-      <c r="B17" s="198"/>
+      <c r="A17" s="222"/>
+      <c r="B17" s="225"/>
       <c r="C17" s="122"/>
-      <c r="D17" s="201"/>
-      <c r="E17" s="228"/>
+      <c r="D17" s="228"/>
+      <c r="E17" s="201"/>
       <c r="F17" s="116"/>
-      <c r="G17" s="231"/>
+      <c r="G17" s="204"/>
       <c r="H17" s="47" t="s">
         <v>60</v>
       </c>
@@ -11136,16 +11136,16 @@
         <f>N17*G16</f>
         <v>0</v>
       </c>
-      <c r="P17" s="234"/>
+      <c r="P17" s="207"/>
     </row>
     <row r="18" spans="1:19" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="195"/>
-      <c r="B18" s="198"/>
+      <c r="A18" s="222"/>
+      <c r="B18" s="225"/>
       <c r="C18" s="122"/>
-      <c r="D18" s="201"/>
-      <c r="E18" s="228"/>
+      <c r="D18" s="228"/>
+      <c r="E18" s="201"/>
       <c r="F18" s="116"/>
-      <c r="G18" s="231"/>
+      <c r="G18" s="204"/>
       <c r="H18" s="47" t="s">
         <v>106</v>
       </c>
@@ -11166,16 +11166,16 @@
         <f>N18*G16</f>
         <v>2</v>
       </c>
-      <c r="P18" s="234"/>
+      <c r="P18" s="207"/>
     </row>
     <row r="19" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="195"/>
-      <c r="B19" s="198"/>
+      <c r="A19" s="222"/>
+      <c r="B19" s="225"/>
       <c r="C19" s="122"/>
-      <c r="D19" s="201"/>
-      <c r="E19" s="228"/>
+      <c r="D19" s="228"/>
+      <c r="E19" s="201"/>
       <c r="F19" s="116"/>
-      <c r="G19" s="231"/>
+      <c r="G19" s="204"/>
       <c r="H19" s="48" t="s">
         <v>48</v>
       </c>
@@ -11193,16 +11193,16 @@
         <f>N19*G16</f>
         <v>3</v>
       </c>
-      <c r="P19" s="234"/>
+      <c r="P19" s="207"/>
     </row>
     <row r="20" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="196"/>
-      <c r="B20" s="199"/>
+      <c r="A20" s="223"/>
+      <c r="B20" s="226"/>
       <c r="C20" s="123"/>
-      <c r="D20" s="202"/>
-      <c r="E20" s="229"/>
+      <c r="D20" s="229"/>
+      <c r="E20" s="202"/>
       <c r="F20" s="117"/>
-      <c r="G20" s="232"/>
+      <c r="G20" s="205"/>
       <c r="H20" s="57" t="s">
         <v>48</v>
       </c>
@@ -11220,7 +11220,7 @@
         <f>SUM(O16:O19)</f>
         <v>6</v>
       </c>
-      <c r="P20" s="235"/>
+      <c r="P20" s="208"/>
     </row>
     <row r="21" spans="1:19" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="22" t="s">
@@ -11233,37 +11233,37 @@
       <c r="D21" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="E21" s="177" t="s">
+      <c r="E21" s="189" t="s">
         <v>81</v>
       </c>
-      <c r="F21" s="178"/>
-      <c r="G21" s="178"/>
-      <c r="H21" s="178"/>
-      <c r="I21" s="178"/>
-      <c r="J21" s="178"/>
-      <c r="K21" s="178"/>
-      <c r="L21" s="178"/>
+      <c r="F21" s="190"/>
+      <c r="G21" s="190"/>
+      <c r="H21" s="190"/>
+      <c r="I21" s="190"/>
+      <c r="J21" s="190"/>
+      <c r="K21" s="190"/>
+      <c r="L21" s="190"/>
       <c r="M21" s="50"/>
       <c r="N21" s="50"/>
       <c r="O21" s="50"/>
       <c r="P21" s="51"/>
     </row>
     <row r="22" spans="1:19" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="203" t="s">
+      <c r="A22" s="230" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="205" t="s">
+      <c r="B22" s="232" t="s">
         <v>176</v>
       </c>
       <c r="C22" s="124"/>
-      <c r="D22" s="206" t="s">
+      <c r="D22" s="175" t="s">
         <v>24</v>
       </c>
-      <c r="E22" s="207" t="s">
+      <c r="E22" s="174" t="s">
         <v>20</v>
       </c>
       <c r="F22" s="106"/>
-      <c r="G22" s="209">
+      <c r="G22" s="177">
         <v>3</v>
       </c>
       <c r="H22" s="57" t="s">
@@ -11284,18 +11284,18 @@
       <c r="O22" s="5">
         <v>6</v>
       </c>
-      <c r="P22" s="224" t="s">
+      <c r="P22" s="197" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:19" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="204"/>
-      <c r="B23" s="205"/>
+      <c r="A23" s="231"/>
+      <c r="B23" s="232"/>
       <c r="C23" s="124"/>
-      <c r="D23" s="206"/>
-      <c r="E23" s="206"/>
+      <c r="D23" s="175"/>
+      <c r="E23" s="175"/>
       <c r="F23" s="107"/>
-      <c r="G23" s="210"/>
+      <c r="G23" s="178"/>
       <c r="H23" s="47" t="s">
         <v>61</v>
       </c>
@@ -11314,16 +11314,16 @@
       <c r="O23" s="5">
         <v>6</v>
       </c>
-      <c r="P23" s="225"/>
+      <c r="P23" s="198"/>
     </row>
     <row r="24" spans="1:19" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="204"/>
-      <c r="B24" s="205"/>
+      <c r="A24" s="231"/>
+      <c r="B24" s="232"/>
       <c r="C24" s="124"/>
-      <c r="D24" s="206"/>
-      <c r="E24" s="206"/>
+      <c r="D24" s="175"/>
+      <c r="E24" s="175"/>
       <c r="F24" s="107"/>
-      <c r="G24" s="210"/>
+      <c r="G24" s="178"/>
       <c r="H24" s="47" t="s">
         <v>62</v>
       </c>
@@ -11342,16 +11342,16 @@
       <c r="O24" s="5">
         <v>6</v>
       </c>
-      <c r="P24" s="225"/>
+      <c r="P24" s="198"/>
     </row>
     <row r="25" spans="1:19" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="204"/>
-      <c r="B25" s="205"/>
+      <c r="A25" s="231"/>
+      <c r="B25" s="232"/>
       <c r="C25" s="124"/>
-      <c r="D25" s="206"/>
-      <c r="E25" s="206"/>
+      <c r="D25" s="175"/>
+      <c r="E25" s="175"/>
       <c r="F25" s="107"/>
-      <c r="G25" s="210"/>
+      <c r="G25" s="178"/>
       <c r="H25" s="48" t="s">
         <v>48</v>
       </c>
@@ -11372,16 +11372,16 @@
       <c r="O25" s="5">
         <v>6</v>
       </c>
-      <c r="P25" s="225"/>
+      <c r="P25" s="198"/>
     </row>
     <row r="26" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="204"/>
-      <c r="B26" s="205"/>
+      <c r="A26" s="231"/>
+      <c r="B26" s="232"/>
       <c r="C26" s="124"/>
-      <c r="D26" s="206"/>
-      <c r="E26" s="208"/>
+      <c r="D26" s="175"/>
+      <c r="E26" s="176"/>
       <c r="F26" s="108"/>
-      <c r="G26" s="211"/>
+      <c r="G26" s="179"/>
       <c r="H26" s="57" t="s">
         <v>48</v>
       </c>
@@ -11400,7 +11400,7 @@
       <c r="O26" s="5">
         <v>24</v>
       </c>
-      <c r="P26" s="226"/>
+      <c r="P26" s="199"/>
     </row>
     <row r="27" spans="1:19" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="22" t="s">
@@ -11413,40 +11413,40 @@
       <c r="D27" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="E27" s="236" t="s">
+      <c r="E27" s="209" t="s">
         <v>30</v>
       </c>
-      <c r="F27" s="237"/>
-      <c r="G27" s="237"/>
-      <c r="H27" s="237"/>
-      <c r="I27" s="237"/>
-      <c r="J27" s="237"/>
-      <c r="K27" s="237"/>
-      <c r="L27" s="237"/>
-      <c r="M27" s="237"/>
-      <c r="N27" s="237"/>
-      <c r="O27" s="237"/>
-      <c r="P27" s="238"/>
+      <c r="F27" s="210"/>
+      <c r="G27" s="210"/>
+      <c r="H27" s="210"/>
+      <c r="I27" s="210"/>
+      <c r="J27" s="210"/>
+      <c r="K27" s="210"/>
+      <c r="L27" s="210"/>
+      <c r="M27" s="210"/>
+      <c r="N27" s="210"/>
+      <c r="O27" s="210"/>
+      <c r="P27" s="211"/>
       <c r="Q27" s="25"/>
       <c r="R27" s="25"/>
       <c r="S27" s="25"/>
     </row>
     <row r="28" spans="1:19" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="185" t="s">
+      <c r="A28" s="212" t="s">
         <v>25</v>
       </c>
-      <c r="B28" s="188" t="s">
+      <c r="B28" s="215" t="s">
         <v>31</v>
       </c>
       <c r="C28" s="118"/>
-      <c r="D28" s="191" t="s">
+      <c r="D28" s="218" t="s">
         <v>85</v>
       </c>
-      <c r="E28" s="218" t="s">
+      <c r="E28" s="191" t="s">
         <v>20</v>
       </c>
       <c r="F28" s="112"/>
-      <c r="G28" s="221">
+      <c r="G28" s="194">
         <v>3</v>
       </c>
       <c r="H28" s="57" t="s">
@@ -11468,7 +11468,7 @@
         <f>G28*N28</f>
         <v>9</v>
       </c>
-      <c r="P28" s="212" t="s">
+      <c r="P28" s="180" t="s">
         <v>17</v>
       </c>
       <c r="Q28" s="25"/>
@@ -11476,13 +11476,13 @@
       <c r="S28" s="25"/>
     </row>
     <row r="29" spans="1:19" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="186"/>
-      <c r="B29" s="189"/>
+      <c r="A29" s="213"/>
+      <c r="B29" s="216"/>
       <c r="C29" s="119"/>
-      <c r="D29" s="192"/>
-      <c r="E29" s="219"/>
+      <c r="D29" s="219"/>
+      <c r="E29" s="192"/>
       <c r="F29" s="113"/>
-      <c r="G29" s="222"/>
+      <c r="G29" s="195"/>
       <c r="H29" s="47" t="s">
         <v>63</v>
       </c>
@@ -11502,16 +11502,16 @@
         <f>G28*N29</f>
         <v>6</v>
       </c>
-      <c r="P29" s="213"/>
+      <c r="P29" s="181"/>
     </row>
     <row r="30" spans="1:19" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="186"/>
-      <c r="B30" s="189"/>
+      <c r="A30" s="213"/>
+      <c r="B30" s="216"/>
       <c r="C30" s="119"/>
-      <c r="D30" s="192"/>
-      <c r="E30" s="219"/>
+      <c r="D30" s="219"/>
+      <c r="E30" s="192"/>
       <c r="F30" s="113"/>
-      <c r="G30" s="222"/>
+      <c r="G30" s="195"/>
       <c r="H30" s="47" t="s">
         <v>48</v>
       </c>
@@ -11533,16 +11533,16 @@
         <f>G28*N30</f>
         <v>9</v>
       </c>
-      <c r="P30" s="213"/>
+      <c r="P30" s="181"/>
     </row>
     <row r="31" spans="1:19" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="186"/>
-      <c r="B31" s="189"/>
+      <c r="A31" s="213"/>
+      <c r="B31" s="216"/>
       <c r="C31" s="119"/>
-      <c r="D31" s="192"/>
-      <c r="E31" s="219"/>
+      <c r="D31" s="219"/>
+      <c r="E31" s="192"/>
       <c r="F31" s="113"/>
-      <c r="G31" s="222"/>
+      <c r="G31" s="195"/>
       <c r="H31" s="48" t="s">
         <v>48</v>
       </c>
@@ -11564,16 +11564,16 @@
         <f>G28*N31</f>
         <v>9</v>
       </c>
-      <c r="P31" s="213"/>
+      <c r="P31" s="181"/>
     </row>
     <row r="32" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="187"/>
-      <c r="B32" s="190"/>
+      <c r="A32" s="214"/>
+      <c r="B32" s="217"/>
       <c r="C32" s="120"/>
-      <c r="D32" s="193"/>
-      <c r="E32" s="220"/>
+      <c r="D32" s="220"/>
+      <c r="E32" s="193"/>
       <c r="F32" s="114"/>
-      <c r="G32" s="223"/>
+      <c r="G32" s="196"/>
       <c r="H32" s="57" t="s">
         <v>48</v>
       </c>
@@ -11591,7 +11591,7 @@
         <f>SUM(O28:O31)</f>
         <v>33</v>
       </c>
-      <c r="P32" s="214"/>
+      <c r="P32" s="182"/>
     </row>
     <row r="33" spans="1:16" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="22" t="s">
@@ -11604,20 +11604,20 @@
       <c r="D33" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="E33" s="215" t="s">
+      <c r="E33" s="183" t="s">
         <v>84</v>
       </c>
-      <c r="F33" s="216"/>
-      <c r="G33" s="216"/>
-      <c r="H33" s="216"/>
-      <c r="I33" s="216"/>
-      <c r="J33" s="216"/>
-      <c r="K33" s="216"/>
-      <c r="L33" s="216"/>
-      <c r="M33" s="216"/>
-      <c r="N33" s="216"/>
-      <c r="O33" s="216"/>
-      <c r="P33" s="217"/>
+      <c r="F33" s="184"/>
+      <c r="G33" s="184"/>
+      <c r="H33" s="184"/>
+      <c r="I33" s="184"/>
+      <c r="J33" s="184"/>
+      <c r="K33" s="184"/>
+      <c r="L33" s="184"/>
+      <c r="M33" s="184"/>
+      <c r="N33" s="184"/>
+      <c r="O33" s="184"/>
+      <c r="P33" s="185"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C34" s="25"/>
@@ -11667,6 +11667,27 @@
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="P2:P7"/>
+    <mergeCell ref="E8:L8"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="B2:B7"/>
+    <mergeCell ref="D2:D7"/>
+    <mergeCell ref="E2:E7"/>
+    <mergeCell ref="G2:G7"/>
+    <mergeCell ref="A9:A14"/>
+    <mergeCell ref="B9:B14"/>
+    <mergeCell ref="D9:D14"/>
+    <mergeCell ref="E9:E14"/>
+    <mergeCell ref="G9:G14"/>
+    <mergeCell ref="A28:A32"/>
+    <mergeCell ref="B28:B32"/>
+    <mergeCell ref="D28:D32"/>
+    <mergeCell ref="A16:A20"/>
+    <mergeCell ref="B16:B20"/>
+    <mergeCell ref="D16:D20"/>
+    <mergeCell ref="A22:A26"/>
+    <mergeCell ref="B22:B26"/>
+    <mergeCell ref="D22:D26"/>
     <mergeCell ref="E22:E26"/>
     <mergeCell ref="G22:G26"/>
     <mergeCell ref="P28:P32"/>
@@ -11681,27 +11702,6 @@
     <mergeCell ref="G16:G20"/>
     <mergeCell ref="P16:P20"/>
     <mergeCell ref="E27:P27"/>
-    <mergeCell ref="A28:A32"/>
-    <mergeCell ref="B28:B32"/>
-    <mergeCell ref="D28:D32"/>
-    <mergeCell ref="A16:A20"/>
-    <mergeCell ref="B16:B20"/>
-    <mergeCell ref="D16:D20"/>
-    <mergeCell ref="A22:A26"/>
-    <mergeCell ref="B22:B26"/>
-    <mergeCell ref="D22:D26"/>
-    <mergeCell ref="A9:A14"/>
-    <mergeCell ref="B9:B14"/>
-    <mergeCell ref="D9:D14"/>
-    <mergeCell ref="E9:E14"/>
-    <mergeCell ref="G9:G14"/>
-    <mergeCell ref="P2:P7"/>
-    <mergeCell ref="E8:L8"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="B2:B7"/>
-    <mergeCell ref="D2:D7"/>
-    <mergeCell ref="E2:E7"/>
-    <mergeCell ref="G2:G7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -12000,7 +12000,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C3">
-    <cfRule type="cellIs" dxfId="35" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>$W$3</formula>
     </cfRule>
   </conditionalFormatting>
